--- a/data/13c_mfa/INCA model 12212023_summary_GR.xlsx
+++ b/data/13c_mfa/INCA model 12212023_summary_GR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettroell/yarrowia_eflux2/data/13c_mfa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2137D601-6849-E643-8EF4-631DB974FBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876888DC-5345-3D47-A77B-119BE6A39D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="500" windowWidth="35920" windowHeight="25640" xr2:uid="{AAE6672A-B131-4F2E-90C4-18E461171EDC}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="335">
   <si>
     <t>ID</t>
   </si>
@@ -1274,6 +1274,12 @@
   </si>
   <si>
     <t>Pathway</t>
+  </si>
+  <si>
+    <t>SUCD2_u6m or SUCD1m</t>
+  </si>
+  <si>
+    <t>AKGDam</t>
   </si>
 </sst>
 </file>
@@ -2374,7 +2380,7 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3617,7 +3623,7 @@
         <v>64</v>
       </c>
       <c r="D28" s="81" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="E28" s="81" t="s">
         <v>300</v>
@@ -3662,7 +3668,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="E29" s="81" t="s">
         <v>301</v>

--- a/data/13c_mfa/INCA model 12212023_summary_GR.xlsx
+++ b/data/13c_mfa/INCA model 12212023_summary_GR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettroell/yarrowia_eflux2/data/13c_mfa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876888DC-5345-3D47-A77B-119BE6A39D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743F25A8-A334-3E42-9E70-D1E9B7F6F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="500" windowWidth="35920" windowHeight="25640" xr2:uid="{AAE6672A-B131-4F2E-90C4-18E461171EDC}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="339">
   <si>
     <t>ID</t>
   </si>
@@ -1276,10 +1276,22 @@
     <t>Pathway</t>
   </si>
   <si>
+    <t>ATPCitL</t>
+  </si>
+  <si>
+    <t>MALS</t>
+  </si>
+  <si>
+    <t>CSNATifm or reverse_CSNATirm</t>
+  </si>
+  <si>
+    <t>reverse_SUCOASm</t>
+  </si>
+  <si>
+    <t>ACONT</t>
+  </si>
+  <si>
     <t>SUCD2_u6m or SUCD1m</t>
-  </si>
-  <si>
-    <t>AKGDam</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1690,18 +1702,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1763,7 +1763,6 @@
     <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1775,6 +1774,18 @@
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2380,7 +2391,7 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2402,3174 +2413,3181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="76" t="s">
         <v>322</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="75" t="s">
         <v>324</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="75" t="s">
         <v>327</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="75" t="s">
         <v>328</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="75" t="s">
         <v>330</v>
       </c>
-      <c r="N1" s="79" t="s">
+      <c r="N1" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="O1" s="78"/>
+      <c r="O1" s="74"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="83">
+      <c r="F2" s="79">
         <v>100</v>
       </c>
-      <c r="G2" s="84">
+      <c r="G2" s="80">
         <v>100</v>
       </c>
-      <c r="H2" s="84">
+      <c r="H2" s="80">
         <v>100</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="78"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="79">
         <v>100</v>
       </c>
-      <c r="J3" s="84">
+      <c r="J3" s="80">
         <v>100</v>
       </c>
-      <c r="K3" s="84">
+      <c r="K3" s="80">
         <v>100</v>
       </c>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="78"/>
+      <c r="O3" s="74"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="85" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="79">
         <v>100</v>
       </c>
-      <c r="J4" s="84">
+      <c r="J4" s="80">
         <v>100</v>
       </c>
-      <c r="K4" s="84">
+      <c r="K4" s="80">
         <v>100</v>
       </c>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="83" t="s">
         <v>325</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="89" t="s">
+      <c r="G5" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="90">
+      <c r="L5" s="86">
         <v>100</v>
       </c>
-      <c r="M5" s="91">
+      <c r="M5" s="87">
         <v>100</v>
       </c>
-      <c r="N5" s="91">
+      <c r="N5" s="87">
         <v>100</v>
       </c>
-      <c r="O5" s="78"/>
+      <c r="O5" s="74"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="88">
         <v>18.049600000000002</v>
       </c>
-      <c r="G6" s="93">
+      <c r="G6" s="89">
         <v>9.7775999999999996</v>
       </c>
-      <c r="H6" s="93">
+      <c r="H6" s="89">
         <v>23.542100000000001</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="88">
         <v>-41.3947</v>
       </c>
-      <c r="J6" s="93">
+      <c r="J6" s="89">
         <v>-41.576099999999997</v>
       </c>
-      <c r="K6" s="93">
+      <c r="K6" s="89">
         <v>-36.590600000000002</v>
       </c>
-      <c r="L6" s="92">
+      <c r="L6" s="88">
         <v>-316.42439999999999</v>
       </c>
-      <c r="M6" s="93">
+      <c r="M6" s="89">
         <v>-328.52269999999999</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="89">
         <v>-265.61160000000001</v>
       </c>
-      <c r="O6" s="78"/>
+      <c r="O6" s="74"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="88">
         <v>56.735799999999998</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G7" s="89">
         <v>53.368200000000002</v>
       </c>
-      <c r="H7" s="93">
+      <c r="H7" s="89">
         <v>59.0807</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="88">
         <v>-20.653099999999998</v>
       </c>
-      <c r="J7" s="93">
+      <c r="J7" s="89">
         <v>-20.7135</v>
       </c>
-      <c r="K7" s="93">
+      <c r="K7" s="89">
         <v>-19.0518</v>
       </c>
-      <c r="L7" s="92">
+      <c r="L7" s="88">
         <v>-145.00319999999999</v>
       </c>
-      <c r="M7" s="93">
+      <c r="M7" s="89">
         <v>-149.03440000000001</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="89">
         <v>-128.0658</v>
       </c>
-      <c r="O7" s="78"/>
+      <c r="O7" s="74"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="92">
+      <c r="F8" s="88">
         <v>56.735799999999998</v>
       </c>
-      <c r="G8" s="93">
+      <c r="G8" s="89">
         <v>53.368200000000002</v>
       </c>
-      <c r="H8" s="93">
+      <c r="H8" s="89">
         <v>59.0807</v>
       </c>
-      <c r="I8" s="92">
+      <c r="I8" s="88">
         <v>-20.653099999999998</v>
       </c>
-      <c r="J8" s="93">
+      <c r="J8" s="89">
         <v>-20.7135</v>
       </c>
-      <c r="K8" s="93">
+      <c r="K8" s="89">
         <v>-19.0518</v>
       </c>
-      <c r="L8" s="92">
+      <c r="L8" s="88">
         <v>-145.00319999999999</v>
       </c>
-      <c r="M8" s="93">
+      <c r="M8" s="89">
         <v>-149.03440000000001</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="89">
         <v>-128.0658</v>
       </c>
-      <c r="O8" s="78"/>
+      <c r="O8" s="74"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="88">
         <v>55.238700000000001</v>
       </c>
-      <c r="G9" s="93">
+      <c r="G9" s="89">
         <v>51.776400000000002</v>
       </c>
-      <c r="H9" s="93">
+      <c r="H9" s="89">
         <v>57.743600000000001</v>
       </c>
-      <c r="I9" s="92">
+      <c r="I9" s="88">
         <v>78.703299999999999</v>
       </c>
-      <c r="J9" s="93">
+      <c r="J9" s="89">
         <v>78.642899999999997</v>
       </c>
-      <c r="K9" s="93">
+      <c r="K9" s="89">
         <v>80.304599999999994</v>
       </c>
-      <c r="L9" s="92">
+      <c r="L9" s="88">
         <v>-154.47149999999999</v>
       </c>
-      <c r="M9" s="93">
+      <c r="M9" s="89">
         <v>-158.50219999999999</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="89">
         <v>-137.49539999999999</v>
       </c>
-      <c r="O9" s="78"/>
+      <c r="O9" s="74"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="88">
         <v>130.184</v>
       </c>
-      <c r="G10" s="93">
+      <c r="G10" s="89">
         <v>124.90309999999999</v>
       </c>
-      <c r="H10" s="93">
+      <c r="H10" s="89">
         <v>135.65979999999999</v>
       </c>
-      <c r="I10" s="92">
+      <c r="I10" s="88">
         <v>67.933700000000002</v>
       </c>
-      <c r="J10" s="93">
+      <c r="J10" s="89">
         <v>67.873199999999997</v>
       </c>
-      <c r="K10" s="93">
+      <c r="K10" s="89">
         <v>69.534599999999998</v>
       </c>
-      <c r="L10" s="92">
+      <c r="L10" s="88">
         <v>-216.1739</v>
       </c>
-      <c r="M10" s="93">
+      <c r="M10" s="89">
         <v>-220.2022</v>
       </c>
-      <c r="N10" s="93">
+      <c r="N10" s="89">
         <v>-199.2371</v>
       </c>
-      <c r="O10" s="78"/>
+      <c r="O10" s="74"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="88">
         <v>125.50230000000001</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="89">
         <v>119.9423</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="89">
         <v>131.54949999999999</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="88">
         <v>66.389700000000005</v>
       </c>
-      <c r="J11" s="93">
+      <c r="J11" s="89">
         <v>66.372699999999995</v>
       </c>
-      <c r="K11" s="93">
+      <c r="K11" s="89">
         <v>67.983699999999999</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="88">
         <v>-221.0187</v>
       </c>
-      <c r="M11" s="93">
+      <c r="M11" s="89">
         <v>-221.35589999999999</v>
       </c>
-      <c r="N11" s="93">
+      <c r="N11" s="89">
         <v>-202.9666</v>
       </c>
-      <c r="O11" s="78"/>
+      <c r="O11" s="74"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="88">
         <v>141.52209999999999</v>
       </c>
-      <c r="G12" s="93">
+      <c r="G12" s="89">
         <v>124.1435</v>
       </c>
-      <c r="H12" s="93">
+      <c r="H12" s="89">
         <v>192.52510000000001</v>
       </c>
-      <c r="I12" s="92">
+      <c r="I12" s="88">
         <v>64.394800000000004</v>
       </c>
-      <c r="J12" s="93">
+      <c r="J12" s="89">
         <v>64.377799999999993</v>
       </c>
-      <c r="K12" s="93">
+      <c r="K12" s="89">
         <v>69.118200000000002</v>
       </c>
-      <c r="L12" s="94">
+      <c r="L12" s="90">
         <v>72.318299999999994</v>
       </c>
-      <c r="M12" s="95">
+      <c r="M12" s="91">
         <v>7.3807999999999998</v>
       </c>
-      <c r="N12" s="95">
+      <c r="N12" s="91">
         <v>151.0872</v>
       </c>
-      <c r="O12" s="78"/>
+      <c r="O12" s="74"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="83" t="s">
         <v>318</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="92">
         <v>20.660900000000002</v>
       </c>
-      <c r="G13" s="97">
+      <c r="G13" s="93">
         <v>5.9576000000000002</v>
       </c>
-      <c r="H13" s="97">
+      <c r="H13" s="93">
         <v>67.834500000000006</v>
       </c>
-      <c r="I13" s="96">
+      <c r="I13" s="92">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="J13" s="97">
+      <c r="J13" s="93">
         <v>0</v>
       </c>
-      <c r="K13" s="97">
+      <c r="K13" s="93">
         <v>4.7191000000000001</v>
       </c>
-      <c r="L13" s="98">
+      <c r="L13" s="94">
         <v>303.245</v>
       </c>
-      <c r="M13" s="99">
+      <c r="M13" s="95">
         <v>234.00460000000001</v>
       </c>
-      <c r="N13" s="99">
+      <c r="N13" s="95">
         <v>372.6671</v>
       </c>
-      <c r="O13" s="78"/>
+      <c r="O13" s="74"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="F14" s="92">
+      <c r="F14" s="88">
         <v>61.425600000000003</v>
       </c>
-      <c r="G14" s="93">
+      <c r="G14" s="89">
         <v>55.279699999999998</v>
       </c>
-      <c r="H14" s="93">
+      <c r="H14" s="89">
         <v>69.714200000000005</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I14" s="88">
         <v>32.572200000000002</v>
       </c>
-      <c r="J14" s="93">
+      <c r="J14" s="89">
         <v>27.768699999999999</v>
       </c>
-      <c r="K14" s="93">
+      <c r="K14" s="89">
         <v>32.766399999999997</v>
       </c>
-      <c r="L14" s="92">
+      <c r="L14" s="88">
         <v>264.50170000000003</v>
       </c>
-      <c r="M14" s="93">
+      <c r="M14" s="89">
         <v>213.69159999999999</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="89">
         <v>276.60210000000001</v>
       </c>
-      <c r="O14" s="78"/>
+      <c r="O14" s="74"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="88">
         <v>61.425600000000003</v>
       </c>
-      <c r="G15" s="93">
+      <c r="G15" s="89">
         <v>55.279699999999998</v>
       </c>
-      <c r="H15" s="93">
+      <c r="H15" s="89">
         <v>69.714200000000005</v>
       </c>
-      <c r="I15" s="92">
+      <c r="I15" s="88">
         <v>32.572200000000002</v>
       </c>
-      <c r="J15" s="93">
+      <c r="J15" s="89">
         <v>27.768699999999999</v>
       </c>
-      <c r="K15" s="93">
+      <c r="K15" s="89">
         <v>32.766399999999997</v>
       </c>
-      <c r="L15" s="92">
+      <c r="L15" s="88">
         <v>264.50170000000003</v>
       </c>
-      <c r="M15" s="93">
+      <c r="M15" s="89">
         <v>213.69159999999999</v>
       </c>
-      <c r="N15" s="93">
+      <c r="N15" s="89">
         <v>276.60210000000001</v>
       </c>
-      <c r="O15" s="78"/>
+      <c r="O15" s="74"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="F16" s="92">
+      <c r="F16" s="88">
         <v>22.7394</v>
       </c>
-      <c r="G16" s="93">
+      <c r="G16" s="89">
         <v>20.774799999999999</v>
       </c>
-      <c r="H16" s="93">
+      <c r="H16" s="89">
         <v>25.4892</v>
       </c>
-      <c r="I16" s="92">
+      <c r="I16" s="88">
         <v>11.8307</v>
       </c>
-      <c r="J16" s="93">
+      <c r="J16" s="89">
         <v>10.2296</v>
       </c>
-      <c r="K16" s="93">
+      <c r="K16" s="89">
         <v>11.8911</v>
       </c>
-      <c r="L16" s="92">
+      <c r="L16" s="88">
         <v>93.080500000000001</v>
       </c>
-      <c r="M16" s="93">
+      <c r="M16" s="89">
         <v>76.143799999999999</v>
       </c>
-      <c r="N16" s="93">
+      <c r="N16" s="89">
         <v>97.113799999999998</v>
       </c>
-      <c r="O16" s="78"/>
+      <c r="O16" s="74"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="F17" s="92">
+      <c r="F17" s="88">
         <v>38.686199999999999</v>
       </c>
-      <c r="G17" s="93">
+      <c r="G17" s="89">
         <v>34.496899999999997</v>
       </c>
-      <c r="H17" s="93">
+      <c r="H17" s="89">
         <v>44.212899999999998</v>
       </c>
-      <c r="I17" s="92">
+      <c r="I17" s="88">
         <v>20.741599999999998</v>
       </c>
-      <c r="J17" s="93">
+      <c r="J17" s="89">
         <v>17.538900000000002</v>
       </c>
-      <c r="K17" s="93">
+      <c r="K17" s="89">
         <v>20.862500000000001</v>
       </c>
-      <c r="L17" s="92">
+      <c r="L17" s="88">
         <v>171.4212</v>
       </c>
-      <c r="M17" s="93">
+      <c r="M17" s="89">
         <v>137.47020000000001</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="89">
         <v>179.48830000000001</v>
       </c>
-      <c r="O17" s="78"/>
+      <c r="O17" s="74"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="F18" s="92">
+      <c r="F18" s="88">
         <v>38.686199999999999</v>
       </c>
-      <c r="G18" s="93">
+      <c r="G18" s="89">
         <v>34.496899999999997</v>
       </c>
-      <c r="H18" s="93">
+      <c r="H18" s="89">
         <v>44.212899999999998</v>
       </c>
-      <c r="I18" s="92">
+      <c r="I18" s="88">
         <v>20.741599999999998</v>
       </c>
-      <c r="J18" s="93">
+      <c r="J18" s="89">
         <v>17.538900000000002</v>
       </c>
-      <c r="K18" s="93">
+      <c r="K18" s="89">
         <v>20.862500000000001</v>
       </c>
-      <c r="L18" s="92">
+      <c r="L18" s="88">
         <v>171.4212</v>
       </c>
-      <c r="M18" s="93">
+      <c r="M18" s="89">
         <v>137.47020000000001</v>
       </c>
-      <c r="N18" s="93">
+      <c r="N18" s="89">
         <v>179.48830000000001</v>
       </c>
-      <c r="O18" s="78"/>
+      <c r="O18" s="74"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="F19" s="92">
+      <c r="F19" s="88">
         <v>18.1829</v>
       </c>
-      <c r="G19" s="93">
+      <c r="G19" s="89">
         <v>16.038900000000002</v>
       </c>
-      <c r="H19" s="93">
+      <c r="H19" s="89">
         <v>20.962499999999999</v>
       </c>
-      <c r="I19" s="92">
+      <c r="I19" s="88">
         <v>9.8720999999999997</v>
       </c>
-      <c r="J19" s="93">
+      <c r="J19" s="89">
         <v>8.2705000000000002</v>
       </c>
-      <c r="K19" s="93">
+      <c r="K19" s="89">
         <v>9.9324999999999992</v>
       </c>
-      <c r="L19" s="92">
+      <c r="L19" s="88">
         <v>83.233599999999996</v>
       </c>
-      <c r="M19" s="93">
+      <c r="M19" s="89">
         <v>66.258899999999997</v>
       </c>
-      <c r="N19" s="93">
+      <c r="N19" s="89">
         <v>87.267200000000003</v>
       </c>
-      <c r="O19" s="78"/>
+      <c r="O19" s="74"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="F20" s="92">
+      <c r="F20" s="88">
         <v>20.503399999999999</v>
       </c>
-      <c r="G20" s="93">
+      <c r="G20" s="89">
         <v>18.4557</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="89">
         <v>23.262599999999999</v>
       </c>
-      <c r="I20" s="92">
+      <c r="I20" s="88">
         <v>10.8695</v>
       </c>
-      <c r="J20" s="93">
+      <c r="J20" s="89">
         <v>9.2683999999999997</v>
       </c>
-      <c r="K20" s="93">
+      <c r="K20" s="89">
         <v>10.93</v>
       </c>
-      <c r="L20" s="92">
+      <c r="L20" s="88">
         <v>88.187600000000003</v>
       </c>
-      <c r="M20" s="93">
+      <c r="M20" s="89">
         <v>71.251900000000006</v>
       </c>
-      <c r="N20" s="93">
+      <c r="N20" s="89">
         <v>92.221100000000007</v>
       </c>
-      <c r="O20" s="78"/>
+      <c r="O20" s="74"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="88">
         <v>20.503399999999999</v>
       </c>
-      <c r="G21" s="93">
+      <c r="G21" s="89">
         <v>18.4557</v>
       </c>
-      <c r="H21" s="93">
+      <c r="H21" s="89">
         <v>23.262599999999999</v>
       </c>
-      <c r="I21" s="92">
+      <c r="I21" s="88">
         <v>10.8695</v>
       </c>
-      <c r="J21" s="93">
+      <c r="J21" s="89">
         <v>9.2683999999999997</v>
       </c>
-      <c r="K21" s="93">
+      <c r="K21" s="89">
         <v>10.93</v>
       </c>
-      <c r="L21" s="92">
+      <c r="L21" s="88">
         <v>88.187600000000003</v>
       </c>
-      <c r="M21" s="93">
+      <c r="M21" s="89">
         <v>71.251900000000006</v>
       </c>
-      <c r="N21" s="93">
+      <c r="N21" s="89">
         <v>92.221100000000007</v>
       </c>
-      <c r="O21" s="78"/>
+      <c r="O21" s="74"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F22" s="92">
         <v>20.503399999999999</v>
       </c>
-      <c r="G22" s="97">
+      <c r="G22" s="93">
         <v>18.4557</v>
       </c>
-      <c r="H22" s="97">
+      <c r="H22" s="93">
         <v>23.262599999999999</v>
       </c>
-      <c r="I22" s="96">
+      <c r="I22" s="92">
         <v>10.8695</v>
       </c>
-      <c r="J22" s="97">
+      <c r="J22" s="93">
         <v>9.2683999999999997</v>
       </c>
-      <c r="K22" s="97">
+      <c r="K22" s="93">
         <v>10.93</v>
       </c>
-      <c r="L22" s="96">
+      <c r="L22" s="92">
         <v>88.187600000000003</v>
       </c>
-      <c r="M22" s="97">
+      <c r="M22" s="93">
         <v>71.251900000000006</v>
       </c>
-      <c r="N22" s="97">
+      <c r="N22" s="93">
         <v>92.221100000000007</v>
       </c>
-      <c r="O22" s="78"/>
+      <c r="O22" s="74"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="88">
         <v>95.034599999999998</v>
       </c>
-      <c r="G23" s="93">
+      <c r="G23" s="89">
         <v>86.570800000000006</v>
       </c>
-      <c r="H23" s="93">
+      <c r="H23" s="89">
         <v>102.7381</v>
       </c>
-      <c r="I23" s="92">
+      <c r="I23" s="88">
         <v>52.254899999999999</v>
       </c>
-      <c r="J23" s="93">
+      <c r="J23" s="89">
         <v>51.431600000000003</v>
       </c>
-      <c r="K23" s="93">
+      <c r="K23" s="89">
         <v>53.925600000000003</v>
       </c>
-      <c r="L23" s="92">
+      <c r="L23" s="88">
         <v>74.943600000000004</v>
       </c>
-      <c r="M23" s="93">
+      <c r="M23" s="89">
         <v>46.188600000000001</v>
       </c>
-      <c r="N23" s="93">
+      <c r="N23" s="89">
         <v>128.3347</v>
       </c>
-      <c r="O23" s="78"/>
+      <c r="O23" s="74"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="88">
         <v>90.567400000000006</v>
       </c>
-      <c r="G24" s="93">
+      <c r="G24" s="89">
         <v>81.799400000000006</v>
       </c>
-      <c r="H24" s="93">
+      <c r="H24" s="89">
         <v>98.557400000000001</v>
       </c>
-      <c r="I24" s="92">
+      <c r="I24" s="88">
         <v>31.332599999999999</v>
       </c>
-      <c r="J24" s="93">
+      <c r="J24" s="89">
         <v>31.3156</v>
       </c>
-      <c r="K24" s="93">
+      <c r="K24" s="89">
         <v>32.967399999999998</v>
       </c>
-      <c r="L24" s="92">
+      <c r="L24" s="88">
         <v>405.8852</v>
       </c>
-      <c r="M24" s="93">
+      <c r="M24" s="89">
         <v>405.5498</v>
       </c>
-      <c r="N24" s="93">
+      <c r="N24" s="89">
         <v>429.21039999999999</v>
       </c>
-      <c r="O24" s="78"/>
+      <c r="O24" s="74"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="77" t="s">
         <v>253</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="88">
         <v>27.4115</v>
       </c>
-      <c r="G25" s="93">
+      <c r="G25" s="89">
         <v>12.880100000000001</v>
       </c>
-      <c r="H25" s="93">
+      <c r="H25" s="89">
         <v>52.617699999999999</v>
       </c>
-      <c r="I25" s="92">
+      <c r="I25" s="88">
         <v>24.327400000000001</v>
       </c>
-      <c r="J25" s="93">
+      <c r="J25" s="89">
         <v>23.5168</v>
       </c>
-      <c r="K25" s="93">
+      <c r="K25" s="89">
         <v>26.079799999999999</v>
       </c>
-      <c r="L25" s="94">
+      <c r="L25" s="90">
         <v>34.117199999999997</v>
       </c>
-      <c r="M25" s="95">
+      <c r="M25" s="91">
         <v>15.3161</v>
       </c>
-      <c r="N25" s="95">
+      <c r="N25" s="91">
         <v>66.319900000000004</v>
       </c>
-      <c r="O25" s="78"/>
+      <c r="O25" s="74"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="F26" s="92">
+      <c r="F26" s="88">
         <v>4.1581000000000001</v>
       </c>
-      <c r="G26" s="93">
+      <c r="G26" s="89">
         <v>0</v>
       </c>
-      <c r="H26" s="93">
+      <c r="H26" s="89">
         <v>17.992699999999999</v>
       </c>
-      <c r="I26" s="92">
+      <c r="I26" s="88">
         <v>24.327400000000001</v>
       </c>
-      <c r="J26" s="93">
+      <c r="J26" s="89">
         <v>16.379799999999999</v>
       </c>
-      <c r="K26" s="93">
+      <c r="K26" s="89">
         <v>26.078800000000001</v>
       </c>
-      <c r="L26" s="92">
+      <c r="L26" s="88">
         <v>34.117199999999997</v>
       </c>
-      <c r="M26" s="93">
+      <c r="M26" s="89">
         <v>0</v>
       </c>
-      <c r="N26" s="93">
+      <c r="N26" s="89">
         <v>66.314700000000002</v>
       </c>
-      <c r="O26" s="78"/>
+      <c r="O26" s="74"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="77" t="s">
         <v>299</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="88">
         <v>23.253399999999999</v>
       </c>
-      <c r="G27" s="93">
+      <c r="G27" s="89">
         <v>0</v>
       </c>
-      <c r="H27" s="93">
+      <c r="H27" s="89">
         <v>33.356400000000001</v>
       </c>
-      <c r="I27" s="92">
+      <c r="I27" s="88">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="J27" s="93">
+      <c r="J27" s="89">
         <v>0</v>
       </c>
-      <c r="K27" s="93">
+      <c r="K27" s="89">
         <v>9.5709</v>
       </c>
-      <c r="L27" s="92">
+      <c r="L27" s="88">
         <v>1.1414E-7</v>
       </c>
-      <c r="M27" s="93">
+      <c r="M27" s="89">
         <v>0</v>
       </c>
-      <c r="N27" s="93">
+      <c r="N27" s="89">
         <v>63.649000000000001</v>
       </c>
-      <c r="O27" s="78"/>
+      <c r="O27" s="74"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="E28" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="F28" s="88">
+        <v>15.277699999999999</v>
+      </c>
+      <c r="G28" s="89">
+        <v>0</v>
+      </c>
+      <c r="H28" s="89">
+        <v>42.839199999999998</v>
+      </c>
+      <c r="I28" s="88">
+        <v>19.111699999999999</v>
+      </c>
+      <c r="J28" s="89">
+        <v>18.300999999999998</v>
+      </c>
+      <c r="K28" s="89">
+        <v>20.8642</v>
+      </c>
+      <c r="L28" s="88">
+        <v>18.0822</v>
+      </c>
+      <c r="M28" s="89">
+        <v>0</v>
+      </c>
+      <c r="N28" s="89">
+        <v>50.671500000000002</v>
+      </c>
+      <c r="O28" s="74"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="F29" s="88">
+        <v>31.32</v>
+      </c>
+      <c r="G29" s="89">
+        <v>18.2883</v>
+      </c>
+      <c r="H29" s="89">
+        <v>49.108899999999998</v>
+      </c>
+      <c r="I29" s="88">
+        <v>25.905899999999999</v>
+      </c>
+      <c r="J29" s="89">
+        <v>25.8889</v>
+      </c>
+      <c r="K29" s="89">
+        <v>27.5001</v>
+      </c>
+      <c r="L29" s="88">
+        <v>389.96019999999999</v>
+      </c>
+      <c r="M29" s="89">
+        <v>389.62259999999998</v>
+      </c>
+      <c r="N29" s="89">
+        <v>414.02679999999998</v>
+      </c>
+      <c r="O29" s="74"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="F30" s="88">
+        <v>33.613900000000001</v>
+      </c>
+      <c r="G30" s="89">
+        <v>20.457999999999998</v>
+      </c>
+      <c r="H30" s="89">
+        <v>51.163800000000002</v>
+      </c>
+      <c r="I30" s="88">
+        <v>26.8919</v>
+      </c>
+      <c r="J30" s="89">
+        <v>26.8749</v>
+      </c>
+      <c r="K30" s="89">
+        <v>28.485900000000001</v>
+      </c>
+      <c r="L30" s="88">
+        <v>393.62540000000001</v>
+      </c>
+      <c r="M30" s="89">
+        <v>393.28989999999999</v>
+      </c>
+      <c r="N30" s="89">
+        <v>417.524</v>
+      </c>
+      <c r="O30" s="74"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="83" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="92">
+        <v>105.17700000000001</v>
+      </c>
+      <c r="G31" s="93">
+        <v>90.726500000000001</v>
+      </c>
+      <c r="H31" s="93">
+        <v>112.13209999999999</v>
+      </c>
+      <c r="I31" s="92">
+        <v>31.400500000000001</v>
+      </c>
+      <c r="J31" s="93">
+        <v>31.3156</v>
+      </c>
+      <c r="K31" s="93">
+        <v>33.051299999999998</v>
+      </c>
+      <c r="L31" s="94">
+        <v>434.69799999999998</v>
+      </c>
+      <c r="M31" s="95">
+        <v>410.35629999999998</v>
+      </c>
+      <c r="N31" s="95">
+        <v>459.43860000000001</v>
+      </c>
+      <c r="O31" s="74"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" s="88">
+        <v>1.8667</v>
+      </c>
+      <c r="G32" s="89">
+        <v>0</v>
+      </c>
+      <c r="H32" s="89">
+        <v>8.9577000000000009</v>
+      </c>
+      <c r="I32" s="88">
+        <v>0.8004</v>
+      </c>
+      <c r="J32" s="89">
+        <v>0</v>
+      </c>
+      <c r="K32" s="89">
+        <v>1.6748000000000001</v>
+      </c>
+      <c r="L32" s="88">
+        <v>27.450399999999998</v>
+      </c>
+      <c r="M32" s="89">
+        <v>0</v>
+      </c>
+      <c r="N32" s="89">
+        <v>102.462</v>
+      </c>
+      <c r="O32" s="74"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="F33" s="90">
+        <v>30.934699999999999</v>
+      </c>
+      <c r="G33" s="91">
+        <v>20.898399999999999</v>
+      </c>
+      <c r="H33" s="91">
+        <v>78.651200000000003</v>
+      </c>
+      <c r="I33" s="88">
+        <v>5.4526000000000003</v>
+      </c>
+      <c r="J33" s="89">
+        <v>4.5762</v>
+      </c>
+      <c r="K33" s="89">
+        <v>8.8552999999999997</v>
+      </c>
+      <c r="L33" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="M33" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="O33" s="74"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" s="77"/>
+      <c r="F34" s="88">
+        <v>1.5123</v>
+      </c>
+      <c r="G34" s="89">
+        <v>0.70079999999999998</v>
+      </c>
+      <c r="H34" s="89">
+        <v>2.4533</v>
+      </c>
+      <c r="I34" s="88">
+        <v>1.5869</v>
+      </c>
+      <c r="J34" s="89">
+        <v>1.3831</v>
+      </c>
+      <c r="K34" s="89">
+        <v>1.7423</v>
+      </c>
+      <c r="L34" s="88">
+        <v>7.4389000000000003</v>
+      </c>
+      <c r="M34" s="89">
+        <v>3.3732000000000002</v>
+      </c>
+      <c r="N34" s="89">
+        <v>17.127700000000001</v>
+      </c>
+      <c r="O34" s="74"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="83"/>
+      <c r="F35" s="92">
+        <v>3.6589999999999998</v>
+      </c>
+      <c r="G35" s="93">
+        <v>2.7528999999999999</v>
+      </c>
+      <c r="H35" s="93">
+        <v>4.6639999999999997</v>
+      </c>
+      <c r="I35" s="92">
+        <v>2.5095999999999998</v>
+      </c>
+      <c r="J35" s="93">
+        <v>2.3058999999999998</v>
+      </c>
+      <c r="K35" s="93">
+        <v>2.6545999999999998</v>
+      </c>
+      <c r="L35" s="92">
+        <v>11.494999999999999</v>
+      </c>
+      <c r="M35" s="93">
+        <v>7.4554999999999998</v>
+      </c>
+      <c r="N35" s="93">
+        <v>21.183599999999998</v>
+      </c>
+      <c r="O35" s="74"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="E36" s="77"/>
+      <c r="F36" s="90">
+        <v>47.1571</v>
+      </c>
+      <c r="G36" s="91">
+        <v>32.9604</v>
+      </c>
+      <c r="H36" s="91">
+        <v>54.431600000000003</v>
+      </c>
+      <c r="I36" s="90">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="J36" s="91">
+        <v>0</v>
+      </c>
+      <c r="K36" s="91">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="L36" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="M36" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="N36" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="O36" s="74"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>306</v>
+      </c>
+      <c r="F37" s="88">
+        <v>15.998799999999999</v>
+      </c>
+      <c r="G37" s="89">
+        <v>5.3281000000000001</v>
+      </c>
+      <c r="H37" s="89">
+        <v>21.843399999999999</v>
+      </c>
+      <c r="I37" s="88">
+        <v>6.7755000000000001</v>
+      </c>
+      <c r="J37" s="89">
+        <v>5.9554</v>
+      </c>
+      <c r="K37" s="89">
+        <v>7.7549999999999999</v>
+      </c>
+      <c r="L37" s="88">
+        <v>371.7681</v>
+      </c>
+      <c r="M37" s="89">
+        <v>351.88249999999999</v>
+      </c>
+      <c r="N37" s="89">
+        <v>412.84129999999999</v>
+      </c>
+      <c r="O37" s="74"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="E38" s="77" t="s">
+        <v>307</v>
+      </c>
+      <c r="F38" s="88">
+        <v>15.998799999999999</v>
+      </c>
+      <c r="G38" s="89">
+        <v>5.3281000000000001</v>
+      </c>
+      <c r="H38" s="89">
+        <v>21.843399999999999</v>
+      </c>
+      <c r="I38" s="88">
+        <v>6.7755000000000001</v>
+      </c>
+      <c r="J38" s="89">
+        <v>5.9554</v>
+      </c>
+      <c r="K38" s="89">
+        <v>7.7549999999999999</v>
+      </c>
+      <c r="L38" s="88">
+        <v>371.7681</v>
+      </c>
+      <c r="M38" s="89">
+        <v>351.88249999999999</v>
+      </c>
+      <c r="N38" s="89">
+        <v>412.84129999999999</v>
+      </c>
+      <c r="O38" s="74"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="E28" s="81" t="s">
-        <v>300</v>
-      </c>
-      <c r="F28" s="92">
-        <v>15.277699999999999</v>
-      </c>
-      <c r="G28" s="93">
+      <c r="E39" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="F39" s="88">
+        <v>15.998799999999999</v>
+      </c>
+      <c r="G39" s="89">
+        <v>5.3281000000000001</v>
+      </c>
+      <c r="H39" s="89">
+        <v>21.843399999999999</v>
+      </c>
+      <c r="I39" s="88">
+        <v>6.7755000000000001</v>
+      </c>
+      <c r="J39" s="89">
+        <v>5.9554</v>
+      </c>
+      <c r="K39" s="89">
+        <v>7.7549999999999999</v>
+      </c>
+      <c r="L39" s="88">
+        <v>371.7681</v>
+      </c>
+      <c r="M39" s="89">
+        <v>351.88249999999999</v>
+      </c>
+      <c r="N39" s="89">
+        <v>412.84129999999999</v>
+      </c>
+      <c r="O39" s="74"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="83" t="s">
+        <v>309</v>
+      </c>
+      <c r="F40" s="92">
+        <v>-57.430900000000001</v>
+      </c>
+      <c r="G40" s="93">
+        <v>-65.0364</v>
+      </c>
+      <c r="H40" s="93">
+        <v>-45.436500000000002</v>
+      </c>
+      <c r="I40" s="92">
+        <v>1.4663999999999999</v>
+      </c>
+      <c r="J40" s="93">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="K40" s="93">
+        <v>3.1383000000000001</v>
+      </c>
+      <c r="L40" s="94">
+        <v>303.245</v>
+      </c>
+      <c r="M40" s="95">
+        <v>236.0455</v>
+      </c>
+      <c r="N40" s="95">
+        <v>398.43990000000002</v>
+      </c>
+      <c r="O40" s="74"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" s="77" t="s">
+        <v>310</v>
+      </c>
+      <c r="F41" s="88">
+        <v>110.614</v>
+      </c>
+      <c r="G41" s="89">
+        <v>101.3447</v>
+      </c>
+      <c r="H41" s="89">
+        <v>118.4143</v>
+      </c>
+      <c r="I41" s="88">
+        <v>58.953600000000002</v>
+      </c>
+      <c r="J41" s="89">
+        <v>58.136699999999998</v>
+      </c>
+      <c r="K41" s="89">
+        <v>60.5901</v>
+      </c>
+      <c r="L41" s="90">
+        <v>72.385499999999993</v>
+      </c>
+      <c r="M41" s="91">
+        <v>7.4302999999999999</v>
+      </c>
+      <c r="N41" s="91">
+        <v>150.8734</v>
+      </c>
+      <c r="O41" s="74"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="E42" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="F42" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" s="90">
+        <v>-19.002099999999999</v>
+      </c>
+      <c r="J42" s="91">
+        <v>-19.956399999999999</v>
+      </c>
+      <c r="K42" s="91">
+        <v>-17.919699999999999</v>
+      </c>
+      <c r="L42" s="90">
+        <v>337.81380000000001</v>
+      </c>
+      <c r="M42" s="91">
+        <v>302.00630000000001</v>
+      </c>
+      <c r="N42" s="91">
+        <v>368.91059999999999</v>
+      </c>
+      <c r="O42" s="74"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="E43" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="F43" s="88">
+        <v>63.155900000000003</v>
+      </c>
+      <c r="G43" s="89">
+        <v>38.353900000000003</v>
+      </c>
+      <c r="H43" s="89">
+        <v>75.924199999999999</v>
+      </c>
+      <c r="I43" s="88">
+        <v>7.0052000000000003</v>
+      </c>
+      <c r="J43" s="89">
+        <v>6.1852</v>
+      </c>
+      <c r="K43" s="89">
+        <v>8.1005000000000003</v>
+      </c>
+      <c r="L43" s="90">
+        <v>371.7681</v>
+      </c>
+      <c r="M43" s="91">
+        <v>351.88249999999999</v>
+      </c>
+      <c r="N43" s="91">
+        <v>412.82490000000001</v>
+      </c>
+      <c r="O43" s="74"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="E44" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="F44" s="88">
+        <v>16.042200000000001</v>
+      </c>
+      <c r="G44" s="89">
+        <v>5.3661000000000003</v>
+      </c>
+      <c r="H44" s="89">
+        <v>21.887899999999998</v>
+      </c>
+      <c r="I44" s="88">
+        <v>6.7941000000000003</v>
+      </c>
+      <c r="J44" s="89">
+        <v>5.9741</v>
+      </c>
+      <c r="K44" s="89">
+        <v>7.7735000000000003</v>
+      </c>
+      <c r="L44" s="88">
+        <v>371.87799999999999</v>
+      </c>
+      <c r="M44" s="89">
+        <v>351.9898</v>
+      </c>
+      <c r="N44" s="89">
+        <v>412.93819999999999</v>
+      </c>
+      <c r="O44" s="74"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="83" t="s">
+        <v>314</v>
+      </c>
+      <c r="F45" s="92">
+        <v>73.429699999999997</v>
+      </c>
+      <c r="G45" s="93">
+        <v>56.055900000000001</v>
+      </c>
+      <c r="H45" s="93">
+        <v>84.448300000000003</v>
+      </c>
+      <c r="I45" s="92">
+        <v>5.3090000000000002</v>
+      </c>
+      <c r="J45" s="96">
+        <v>4.2108999999999996</v>
+      </c>
+      <c r="K45" s="93">
+        <v>6.4196</v>
+      </c>
+      <c r="L45" s="94">
+        <v>68.522999999999996</v>
+      </c>
+      <c r="M45" s="95">
+        <v>11.7296</v>
+      </c>
+      <c r="N45" s="95">
+        <v>145.5017</v>
+      </c>
+      <c r="O45" s="74"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="88">
+        <v>4.6817000000000002</v>
+      </c>
+      <c r="G46" s="97">
+        <v>4.0145999999999997</v>
+      </c>
+      <c r="H46" s="97">
+        <v>5.1927000000000003</v>
+      </c>
+      <c r="I46" s="88">
+        <v>1.544</v>
+      </c>
+      <c r="J46" s="89">
+        <v>1.4715</v>
+      </c>
+      <c r="K46" s="89">
+        <v>1.6457999999999999</v>
+      </c>
+      <c r="L46" s="88">
+        <v>4.8446999999999996</v>
+      </c>
+      <c r="M46" s="89">
         <v>0</v>
       </c>
-      <c r="H28" s="93">
-        <v>42.839199999999998</v>
-      </c>
-      <c r="I28" s="92">
-        <v>19.111699999999999</v>
-      </c>
-      <c r="J28" s="93">
-        <v>18.300999999999998</v>
-      </c>
-      <c r="K28" s="93">
-        <v>20.8642</v>
-      </c>
-      <c r="L28" s="92">
-        <v>18.0822</v>
-      </c>
-      <c r="M28" s="93">
+      <c r="N46" s="89">
+        <v>6.8643999999999998</v>
+      </c>
+      <c r="O46" s="74"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="88">
+        <v>1.9555</v>
+      </c>
+      <c r="G47" s="89">
+        <v>1.4835</v>
+      </c>
+      <c r="H47" s="89">
+        <v>2.3628</v>
+      </c>
+      <c r="I47" s="88">
+        <v>0.37219999999999998</v>
+      </c>
+      <c r="J47" s="89">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="K47" s="89">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="L47" s="88">
+        <v>1.0024</v>
+      </c>
+      <c r="M47" s="89">
+        <v>-3.8420999999999998</v>
+      </c>
+      <c r="N47" s="89">
+        <v>3.0369999999999999</v>
+      </c>
+      <c r="O47" s="74"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="88">
+        <v>-0.69750000000000001</v>
+      </c>
+      <c r="G48" s="89">
+        <v>-1.0893999999999999</v>
+      </c>
+      <c r="H48" s="89">
+        <v>-0.25059999999999999</v>
+      </c>
+      <c r="I48" s="88">
+        <v>0.1686</v>
+      </c>
+      <c r="J48" s="89">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="K48" s="89">
+        <v>0.24629999999999999</v>
+      </c>
+      <c r="L48" s="88">
+        <v>1.4165000000000001</v>
+      </c>
+      <c r="M48" s="89">
+        <v>-0.61770000000000003</v>
+      </c>
+      <c r="N48" s="89">
+        <v>6.2610000000000001</v>
+      </c>
+      <c r="O48" s="74"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="88">
+        <v>50.6218</v>
+      </c>
+      <c r="G49" s="89">
+        <v>44.285899999999998</v>
+      </c>
+      <c r="H49" s="89">
+        <v>54.964799999999997</v>
+      </c>
+      <c r="I49" s="88">
+        <v>22.228000000000002</v>
+      </c>
+      <c r="J49" s="89">
+        <v>21.928599999999999</v>
+      </c>
+      <c r="K49" s="89">
+        <v>22.3005</v>
+      </c>
+      <c r="L49" s="88">
+        <v>76.875500000000002</v>
+      </c>
+      <c r="M49" s="89">
+        <v>72.491799999999998</v>
+      </c>
+      <c r="N49" s="89">
+        <v>81.716800000000006</v>
+      </c>
+      <c r="O49" s="74"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="88">
+        <v>7.3310000000000004</v>
+      </c>
+      <c r="G50" s="89">
+        <v>6.4097</v>
+      </c>
+      <c r="H50" s="89">
+        <v>7.9444999999999997</v>
+      </c>
+      <c r="I50" s="88">
+        <v>3.1511999999999998</v>
+      </c>
+      <c r="J50" s="89">
+        <v>3.1093000000000002</v>
+      </c>
+      <c r="K50" s="89">
+        <v>3.1511999999999998</v>
+      </c>
+      <c r="L50" s="88">
+        <v>10.9099</v>
+      </c>
+      <c r="M50" s="89">
+        <v>10.4008</v>
+      </c>
+      <c r="N50" s="89">
+        <v>10.9094</v>
+      </c>
+      <c r="O50" s="74"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="88">
+        <v>1.8714</v>
+      </c>
+      <c r="G51" s="89">
+        <v>1.6362000000000001</v>
+      </c>
+      <c r="H51" s="89">
+        <v>2.028</v>
+      </c>
+      <c r="I51" s="88">
+        <v>0.8044</v>
+      </c>
+      <c r="J51" s="89">
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="K51" s="89">
+        <v>0.8044</v>
+      </c>
+      <c r="L51" s="88">
+        <v>2.7488000000000001</v>
+      </c>
+      <c r="M51" s="89">
+        <v>2.6206</v>
+      </c>
+      <c r="N51" s="89">
+        <v>2.7486999999999999</v>
+      </c>
+      <c r="O51" s="74"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="88">
+        <v>1.5694999999999999</v>
+      </c>
+      <c r="G52" s="89">
+        <v>1.3723000000000001</v>
+      </c>
+      <c r="H52" s="89">
+        <v>1.7009000000000001</v>
+      </c>
+      <c r="I52" s="88">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="J52" s="89">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="K52" s="89">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="L52" s="88">
+        <v>2.5960999999999999</v>
+      </c>
+      <c r="M52" s="89">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="N52" s="89">
+        <v>2.5960000000000001</v>
+      </c>
+      <c r="O52" s="74"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="88">
+        <v>1.5486000000000001E-6</v>
+      </c>
+      <c r="G53" s="89">
         <v>0</v>
       </c>
-      <c r="N28" s="93">
-        <v>50.671500000000002</v>
-      </c>
-      <c r="O28" s="78"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="81" t="s">
-        <v>333</v>
-      </c>
-      <c r="E29" s="81" t="s">
-        <v>301</v>
-      </c>
-      <c r="F29" s="92">
-        <v>31.32</v>
-      </c>
-      <c r="G29" s="93">
-        <v>18.2883</v>
-      </c>
-      <c r="H29" s="93">
-        <v>49.108899999999998</v>
-      </c>
-      <c r="I29" s="92">
-        <v>25.905899999999999</v>
-      </c>
-      <c r="J29" s="93">
-        <v>25.8889</v>
-      </c>
-      <c r="K29" s="93">
-        <v>27.5001</v>
-      </c>
-      <c r="L29" s="92">
-        <v>389.96019999999999</v>
-      </c>
-      <c r="M29" s="93">
-        <v>389.62259999999998</v>
-      </c>
-      <c r="N29" s="93">
-        <v>414.02679999999998</v>
-      </c>
-      <c r="O29" s="78"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="81" t="s">
-        <v>258</v>
-      </c>
-      <c r="E30" s="81" t="s">
-        <v>302</v>
-      </c>
-      <c r="F30" s="92">
-        <v>33.613900000000001</v>
-      </c>
-      <c r="G30" s="93">
-        <v>20.457999999999998</v>
-      </c>
-      <c r="H30" s="93">
-        <v>51.163800000000002</v>
-      </c>
-      <c r="I30" s="92">
-        <v>26.8919</v>
-      </c>
-      <c r="J30" s="93">
-        <v>26.8749</v>
-      </c>
-      <c r="K30" s="93">
-        <v>28.485900000000001</v>
-      </c>
-      <c r="L30" s="92">
-        <v>393.62540000000001</v>
-      </c>
-      <c r="M30" s="93">
-        <v>393.28989999999999</v>
-      </c>
-      <c r="N30" s="93">
-        <v>417.524</v>
-      </c>
-      <c r="O30" s="78"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="87" t="s">
-        <v>259</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>303</v>
-      </c>
-      <c r="F31" s="96">
-        <v>105.17700000000001</v>
-      </c>
-      <c r="G31" s="97">
-        <v>90.726500000000001</v>
-      </c>
-      <c r="H31" s="97">
-        <v>112.13209999999999</v>
-      </c>
-      <c r="I31" s="96">
-        <v>31.400500000000001</v>
-      </c>
-      <c r="J31" s="97">
-        <v>31.3156</v>
-      </c>
-      <c r="K31" s="97">
-        <v>33.051299999999998</v>
-      </c>
-      <c r="L31" s="98">
-        <v>434.69799999999998</v>
-      </c>
-      <c r="M31" s="99">
-        <v>410.35629999999998</v>
-      </c>
-      <c r="N31" s="99">
-        <v>459.43860000000001</v>
-      </c>
-      <c r="O31" s="78"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="81" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="81" t="s">
-        <v>304</v>
-      </c>
-      <c r="F32" s="92">
-        <v>1.8667</v>
-      </c>
-      <c r="G32" s="93">
+      <c r="H53" s="89">
+        <v>10.8581</v>
+      </c>
+      <c r="I53" s="88">
+        <v>7.1487999999999996</v>
+      </c>
+      <c r="J53" s="89">
+        <v>6.6437999999999997</v>
+      </c>
+      <c r="K53" s="89">
+        <v>7.2937000000000003</v>
+      </c>
+      <c r="L53" s="88">
+        <v>1.0045E-7</v>
+      </c>
+      <c r="M53" s="89">
         <v>0</v>
       </c>
-      <c r="H32" s="93">
-        <v>8.9577000000000009</v>
-      </c>
-      <c r="I32" s="92">
-        <v>0.8004</v>
-      </c>
-      <c r="J32" s="93">
+      <c r="N53" s="89">
+        <v>36.522199999999998</v>
+      </c>
+      <c r="O53" s="74"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="88">
+        <v>14.609500000000001</v>
+      </c>
+      <c r="G54" s="89">
+        <v>4.3471000000000002</v>
+      </c>
+      <c r="H54" s="89">
+        <v>16.188400000000001</v>
+      </c>
+      <c r="I54" s="88">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="J54" s="89">
         <v>0</v>
       </c>
-      <c r="K32" s="93">
-        <v>1.6748000000000001</v>
-      </c>
-      <c r="L32" s="92">
-        <v>27.450399999999998</v>
-      </c>
-      <c r="M32" s="93">
+      <c r="K54" s="89">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="L54" s="88">
+        <v>28.812799999999999</v>
+      </c>
+      <c r="M54" s="89">
         <v>0</v>
       </c>
-      <c r="N32" s="93">
-        <v>102.462</v>
-      </c>
-      <c r="O32" s="78"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="81" t="s">
-        <v>305</v>
-      </c>
-      <c r="F33" s="94">
-        <v>30.934699999999999</v>
-      </c>
-      <c r="G33" s="95">
-        <v>20.898399999999999</v>
-      </c>
-      <c r="H33" s="95">
-        <v>78.651200000000003</v>
-      </c>
-      <c r="I33" s="92">
-        <v>5.4526000000000003</v>
-      </c>
-      <c r="J33" s="93">
-        <v>4.5762</v>
-      </c>
-      <c r="K33" s="93">
-        <v>8.8552999999999997</v>
-      </c>
-      <c r="L33" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="M33" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="N33" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="O33" s="78"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="81" t="s">
-        <v>262</v>
-      </c>
-      <c r="E34" s="81"/>
-      <c r="F34" s="92">
+      <c r="N54" s="89">
+        <v>38.500599999999999</v>
+      </c>
+      <c r="O54" s="74"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="88">
+        <v>2.0827</v>
+      </c>
+      <c r="G55" s="89">
+        <v>1.8209</v>
+      </c>
+      <c r="H55" s="89">
+        <v>2.2570000000000001</v>
+      </c>
+      <c r="I55" s="88">
+        <v>0.8952</v>
+      </c>
+      <c r="J55" s="89">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="K55" s="89">
+        <v>0.8952</v>
+      </c>
+      <c r="L55" s="88">
+        <v>2.7488000000000001</v>
+      </c>
+      <c r="M55" s="89">
+        <v>2.6206</v>
+      </c>
+      <c r="N55" s="89">
+        <v>2.7486999999999999</v>
+      </c>
+      <c r="O55" s="74"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="88">
+        <v>4.2861000000000002</v>
+      </c>
+      <c r="G56" s="89">
+        <v>3.7473999999999998</v>
+      </c>
+      <c r="H56" s="89">
+        <v>4.6447000000000003</v>
+      </c>
+      <c r="I56" s="88">
+        <v>1.8423</v>
+      </c>
+      <c r="J56" s="89">
+        <v>1.8179000000000001</v>
+      </c>
+      <c r="K56" s="89">
+        <v>1.8423</v>
+      </c>
+      <c r="L56" s="88">
+        <v>5.9558</v>
+      </c>
+      <c r="M56" s="89">
+        <v>5.6779000000000002</v>
+      </c>
+      <c r="N56" s="89">
+        <v>5.9555999999999996</v>
+      </c>
+      <c r="O56" s="74"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="88">
+        <v>5.7380000000000004</v>
+      </c>
+      <c r="G57" s="89">
+        <v>4.7350000000000003</v>
+      </c>
+      <c r="H57" s="89">
+        <v>6.8377999999999997</v>
+      </c>
+      <c r="I57" s="88">
+        <v>3.4033000000000002</v>
+      </c>
+      <c r="J57" s="89">
+        <v>3.1995</v>
+      </c>
+      <c r="K57" s="89">
+        <v>3.5482999999999998</v>
+      </c>
+      <c r="L57" s="88">
+        <v>13.547499999999999</v>
+      </c>
+      <c r="M57" s="89">
+        <v>9.4728999999999992</v>
+      </c>
+      <c r="N57" s="89">
+        <v>23.236000000000001</v>
+      </c>
+      <c r="O57" s="74"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="88">
         <v>1.5123</v>
       </c>
-      <c r="G34" s="93">
+      <c r="G58" s="89">
         <v>0.70079999999999998</v>
       </c>
-      <c r="H34" s="93">
+      <c r="H58" s="89">
         <v>2.4533</v>
       </c>
-      <c r="I34" s="92">
+      <c r="I58" s="88">
         <v>1.5869</v>
       </c>
-      <c r="J34" s="93">
+      <c r="J58" s="89">
         <v>1.3831</v>
       </c>
-      <c r="K34" s="93">
+      <c r="K58" s="89">
         <v>1.7423</v>
       </c>
-      <c r="L34" s="92">
+      <c r="L58" s="88">
         <v>7.4389000000000003</v>
       </c>
-      <c r="M34" s="93">
+      <c r="M58" s="89">
         <v>3.3732000000000002</v>
       </c>
-      <c r="N34" s="93">
+      <c r="N58" s="89">
         <v>17.127700000000001</v>
       </c>
-      <c r="O34" s="78"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="96">
-        <v>3.6589999999999998</v>
-      </c>
-      <c r="G35" s="97">
-        <v>2.7528999999999999</v>
-      </c>
-      <c r="H35" s="97">
-        <v>4.6639999999999997</v>
-      </c>
-      <c r="I35" s="96">
-        <v>2.5095999999999998</v>
-      </c>
-      <c r="J35" s="97">
-        <v>2.3058999999999998</v>
-      </c>
-      <c r="K35" s="97">
-        <v>2.6545999999999998</v>
-      </c>
-      <c r="L35" s="96">
-        <v>11.494999999999999</v>
-      </c>
-      <c r="M35" s="97">
-        <v>7.4554999999999998</v>
-      </c>
-      <c r="N35" s="97">
-        <v>21.183599999999998</v>
-      </c>
-      <c r="O35" s="78"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="94">
-        <v>47.1571</v>
-      </c>
-      <c r="G36" s="95">
-        <v>32.9604</v>
-      </c>
-      <c r="H36" s="95">
-        <v>54.431600000000003</v>
-      </c>
-      <c r="I36" s="94">
-        <v>0.22969999999999999</v>
-      </c>
-      <c r="J36" s="95">
+      <c r="O58" s="74"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="88">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="G59" s="89">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H59" s="89">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="I59" s="88">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="J59" s="89">
+        <v>1.84E-2</v>
+      </c>
+      <c r="K59" s="89">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="L59" s="88">
+        <v>0.11</v>
+      </c>
+      <c r="M59" s="89">
+        <v>0.1048</v>
+      </c>
+      <c r="N59" s="89">
+        <v>0.1099</v>
+      </c>
+      <c r="O59" s="74"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="88">
+        <v>0.53359999999999996</v>
+      </c>
+      <c r="G60" s="89">
+        <v>0.46660000000000001</v>
+      </c>
+      <c r="H60" s="89">
+        <v>0.57830000000000004</v>
+      </c>
+      <c r="I60" s="88">
+        <v>0.22939999999999999</v>
+      </c>
+      <c r="J60" s="89">
+        <v>0.2263</v>
+      </c>
+      <c r="K60" s="89">
+        <v>0.22939999999999999</v>
+      </c>
+      <c r="L60" s="88">
+        <v>1.35</v>
+      </c>
+      <c r="M60" s="89">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="N60" s="89">
+        <v>1.3499000000000001</v>
+      </c>
+      <c r="O60" s="74"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="88">
+        <v>2.8372999999999999</v>
+      </c>
+      <c r="G61" s="89">
+        <v>2.4807000000000001</v>
+      </c>
+      <c r="H61" s="89">
+        <v>3.0747</v>
+      </c>
+      <c r="I61" s="88">
+        <v>1.2196</v>
+      </c>
+      <c r="J61" s="89">
+        <v>1.2034</v>
+      </c>
+      <c r="K61" s="89">
+        <v>1.2196</v>
+      </c>
+      <c r="L61" s="88">
+        <v>1.8326</v>
+      </c>
+      <c r="M61" s="89">
+        <v>1.7471000000000001</v>
+      </c>
+      <c r="N61" s="89">
+        <v>1.8325</v>
+      </c>
+      <c r="O61" s="74"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="88">
+        <v>2.7768999999999999</v>
+      </c>
+      <c r="G62" s="89">
+        <v>2.4279000000000002</v>
+      </c>
+      <c r="H62" s="89">
+        <v>3.0093000000000001</v>
+      </c>
+      <c r="I62" s="88">
+        <v>1.1936</v>
+      </c>
+      <c r="J62" s="89">
+        <v>1.1778</v>
+      </c>
+      <c r="K62" s="89">
+        <v>1.1936</v>
+      </c>
+      <c r="L62" s="88">
+        <v>3.8178000000000001</v>
+      </c>
+      <c r="M62" s="89">
+        <v>3.6396999999999999</v>
+      </c>
+      <c r="N62" s="89">
+        <v>3.8176999999999999</v>
+      </c>
+      <c r="O62" s="74"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="88">
+        <v>1.4488000000000001</v>
+      </c>
+      <c r="G63" s="89">
+        <v>1.2666999999999999</v>
+      </c>
+      <c r="H63" s="89">
+        <v>1.5701000000000001</v>
+      </c>
+      <c r="I63" s="88">
+        <v>0.62280000000000002</v>
+      </c>
+      <c r="J63" s="89">
+        <v>0.61450000000000005</v>
+      </c>
+      <c r="K63" s="89">
+        <v>0.62280000000000002</v>
+      </c>
+      <c r="L63" s="88">
+        <v>1.9853000000000001</v>
+      </c>
+      <c r="M63" s="89">
+        <v>1.8926000000000001</v>
+      </c>
+      <c r="N63" s="89">
+        <v>1.9852000000000001</v>
+      </c>
+      <c r="O63" s="74"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="88">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="G64" s="89">
+        <v>0.7389</v>
+      </c>
+      <c r="H64" s="89">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="I64" s="88">
+        <v>0.36330000000000001</v>
+      </c>
+      <c r="J64" s="89">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="K64" s="89">
+        <v>0.36330000000000001</v>
+      </c>
+      <c r="L64" s="88">
+        <v>2.9016000000000002</v>
+      </c>
+      <c r="M64" s="89">
+        <v>2.7662</v>
+      </c>
+      <c r="N64" s="89">
+        <v>2.9014000000000002</v>
+      </c>
+      <c r="O64" s="74"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="88">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="G65" s="89">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="H65" s="89">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="I65" s="88">
+        <v>1.14E-2</v>
+      </c>
+      <c r="J65" s="89">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="K65" s="89">
+        <v>1.14E-2</v>
+      </c>
+      <c r="L65" s="88">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="M65" s="89">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="N65" s="89">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="O65" s="74"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="88">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="G66" s="89">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="H66" s="89">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="I66" s="88">
+        <v>0.31140000000000001</v>
+      </c>
+      <c r="J66" s="89">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="K66" s="89">
+        <v>0.31140000000000001</v>
+      </c>
+      <c r="L66" s="88">
+        <v>1.069</v>
+      </c>
+      <c r="M66" s="89">
+        <v>1.0190999999999999</v>
+      </c>
+      <c r="N66" s="89">
+        <v>1.069</v>
+      </c>
+      <c r="O66" s="74"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="88">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="G67" s="89">
+        <v>1.5833999999999999</v>
+      </c>
+      <c r="H67" s="89">
+        <v>1.9625999999999999</v>
+      </c>
+      <c r="I67" s="88">
+        <v>0.77849999999999997</v>
+      </c>
+      <c r="J67" s="89">
+        <v>0.7681</v>
+      </c>
+      <c r="K67" s="89">
+        <v>0.77849999999999997</v>
+      </c>
+      <c r="L67" s="88">
+        <v>2.7488000000000001</v>
+      </c>
+      <c r="M67" s="89">
+        <v>2.6206</v>
+      </c>
+      <c r="N67" s="89">
+        <v>2.7486999999999999</v>
+      </c>
+      <c r="O67" s="74"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="F68" s="92">
+        <v>2.8976000000000002</v>
+      </c>
+      <c r="G68" s="93">
+        <v>2.5335000000000001</v>
+      </c>
+      <c r="H68" s="93">
+        <v>3.1400999999999999</v>
+      </c>
+      <c r="I68" s="92">
+        <v>1.2455000000000001</v>
+      </c>
+      <c r="J68" s="93">
+        <v>1.2290000000000001</v>
+      </c>
+      <c r="K68" s="93">
+        <v>1.2455000000000001</v>
+      </c>
+      <c r="L68" s="92">
+        <v>4.2759999999999998</v>
+      </c>
+      <c r="M68" s="93">
+        <v>4.0765000000000002</v>
+      </c>
+      <c r="N68" s="93">
+        <v>4.2758000000000003</v>
+      </c>
+      <c r="O68" s="74"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="77" t="s">
+        <v>319</v>
+      </c>
+      <c r="B69" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" s="77"/>
+      <c r="F69" s="88">
+        <v>12.073399999999999</v>
+      </c>
+      <c r="G69" s="89">
+        <v>10.556100000000001</v>
+      </c>
+      <c r="H69" s="89">
+        <v>13.0838</v>
+      </c>
+      <c r="I69" s="88">
+        <v>5.1897000000000002</v>
+      </c>
+      <c r="J69" s="89">
+        <v>5.1208</v>
+      </c>
+      <c r="K69" s="89">
+        <v>5.1897000000000002</v>
+      </c>
+      <c r="L69" s="88">
+        <v>30.5428</v>
+      </c>
+      <c r="M69" s="89">
+        <v>29.1175</v>
+      </c>
+      <c r="N69" s="89">
+        <v>30.541499999999999</v>
+      </c>
+      <c r="O69" s="74"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="B70" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" s="77"/>
+      <c r="F70" s="88">
+        <v>778.43280000000004</v>
+      </c>
+      <c r="G70" s="89">
+        <v>572.39170000000001</v>
+      </c>
+      <c r="H70" s="89">
+        <v>1065.4000000000001</v>
+      </c>
+      <c r="I70" s="88">
+        <v>732.68920000000003</v>
+      </c>
+      <c r="J70" s="89">
+        <v>728.56479999999999</v>
+      </c>
+      <c r="K70" s="89">
+        <v>746.42179999999996</v>
+      </c>
+      <c r="L70" s="88">
+        <v>4851.5</v>
+      </c>
+      <c r="M70" s="89">
+        <v>4808.5</v>
+      </c>
+      <c r="N70" s="89">
+        <v>5135.2</v>
+      </c>
+      <c r="O70" s="74"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="B71" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="88">
+        <v>1.5852000000000001E-6</v>
+      </c>
+      <c r="G71" s="89">
         <v>0</v>
       </c>
-      <c r="K36" s="95">
-        <v>0.88270000000000004</v>
-      </c>
-      <c r="L36" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="M36" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="N36" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="O36" s="78"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="81" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81" t="s">
-        <v>306</v>
-      </c>
-      <c r="F37" s="92">
-        <v>15.998799999999999</v>
-      </c>
-      <c r="G37" s="93">
-        <v>5.3281000000000001</v>
-      </c>
-      <c r="H37" s="93">
-        <v>21.843399999999999</v>
-      </c>
-      <c r="I37" s="92">
-        <v>6.7755000000000001</v>
-      </c>
-      <c r="J37" s="93">
-        <v>5.9554</v>
-      </c>
-      <c r="K37" s="93">
-        <v>7.7549999999999999</v>
-      </c>
-      <c r="L37" s="92">
-        <v>371.7681</v>
-      </c>
-      <c r="M37" s="93">
-        <v>351.88249999999999</v>
-      </c>
-      <c r="N37" s="93">
-        <v>412.84129999999999</v>
-      </c>
-      <c r="O37" s="78"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="81" t="s">
-        <v>264</v>
-      </c>
-      <c r="E38" s="81" t="s">
-        <v>307</v>
-      </c>
-      <c r="F38" s="92">
-        <v>15.998799999999999</v>
-      </c>
-      <c r="G38" s="93">
-        <v>5.3281000000000001</v>
-      </c>
-      <c r="H38" s="93">
-        <v>21.843399999999999</v>
-      </c>
-      <c r="I38" s="92">
-        <v>6.7755000000000001</v>
-      </c>
-      <c r="J38" s="93">
-        <v>5.9554</v>
-      </c>
-      <c r="K38" s="93">
-        <v>7.7549999999999999</v>
-      </c>
-      <c r="L38" s="92">
-        <v>371.7681</v>
-      </c>
-      <c r="M38" s="93">
-        <v>351.88249999999999</v>
-      </c>
-      <c r="N38" s="93">
-        <v>412.84129999999999</v>
-      </c>
-      <c r="O38" s="78"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="E39" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="F39" s="92">
-        <v>15.998799999999999</v>
-      </c>
-      <c r="G39" s="93">
-        <v>5.3281000000000001</v>
-      </c>
-      <c r="H39" s="93">
-        <v>21.843399999999999</v>
-      </c>
-      <c r="I39" s="92">
-        <v>6.7755000000000001</v>
-      </c>
-      <c r="J39" s="93">
-        <v>5.9554</v>
-      </c>
-      <c r="K39" s="93">
-        <v>7.7549999999999999</v>
-      </c>
-      <c r="L39" s="92">
-        <v>371.7681</v>
-      </c>
-      <c r="M39" s="93">
-        <v>351.88249999999999</v>
-      </c>
-      <c r="N39" s="93">
-        <v>412.84129999999999</v>
-      </c>
-      <c r="O39" s="78"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="E40" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="F40" s="96">
-        <v>-57.430900000000001</v>
-      </c>
-      <c r="G40" s="97">
-        <v>-65.0364</v>
-      </c>
-      <c r="H40" s="97">
-        <v>-45.436500000000002</v>
-      </c>
-      <c r="I40" s="96">
-        <v>1.4663999999999999</v>
-      </c>
-      <c r="J40" s="97">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="K40" s="97">
-        <v>3.1383000000000001</v>
-      </c>
-      <c r="L40" s="98">
-        <v>303.245</v>
-      </c>
-      <c r="M40" s="99">
-        <v>236.0455</v>
-      </c>
-      <c r="N40" s="99">
-        <v>398.43990000000002</v>
-      </c>
-      <c r="O40" s="78"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="81" t="s">
-        <v>267</v>
-      </c>
-      <c r="E41" s="81" t="s">
-        <v>310</v>
-      </c>
-      <c r="F41" s="92">
-        <v>110.614</v>
-      </c>
-      <c r="G41" s="93">
-        <v>101.3447</v>
-      </c>
-      <c r="H41" s="93">
-        <v>118.4143</v>
-      </c>
-      <c r="I41" s="92">
-        <v>58.953600000000002</v>
-      </c>
-      <c r="J41" s="93">
-        <v>58.136699999999998</v>
-      </c>
-      <c r="K41" s="93">
-        <v>60.5901</v>
-      </c>
-      <c r="L41" s="94">
-        <v>72.385499999999993</v>
-      </c>
-      <c r="M41" s="95">
-        <v>7.4302999999999999</v>
-      </c>
-      <c r="N41" s="95">
-        <v>150.8734</v>
-      </c>
-      <c r="O41" s="78"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81" t="s">
-        <v>311</v>
-      </c>
-      <c r="F42" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42" s="94">
-        <v>-19.002099999999999</v>
-      </c>
-      <c r="J42" s="95">
-        <v>-19.956399999999999</v>
-      </c>
-      <c r="K42" s="95">
-        <v>-17.919699999999999</v>
-      </c>
-      <c r="L42" s="94">
-        <v>337.81380000000001</v>
-      </c>
-      <c r="M42" s="95">
-        <v>302.00630000000001</v>
-      </c>
-      <c r="N42" s="95">
-        <v>368.91059999999999</v>
-      </c>
-      <c r="O42" s="78"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="81" t="s">
-        <v>268</v>
-      </c>
-      <c r="E43" s="81" t="s">
-        <v>312</v>
-      </c>
-      <c r="F43" s="92">
-        <v>63.155900000000003</v>
-      </c>
-      <c r="G43" s="93">
-        <v>38.353900000000003</v>
-      </c>
-      <c r="H43" s="93">
-        <v>75.924199999999999</v>
-      </c>
-      <c r="I43" s="92">
-        <v>7.0052000000000003</v>
-      </c>
-      <c r="J43" s="93">
-        <v>6.1852</v>
-      </c>
-      <c r="K43" s="93">
-        <v>8.1005000000000003</v>
-      </c>
-      <c r="L43" s="94">
-        <v>371.7681</v>
-      </c>
-      <c r="M43" s="95">
-        <v>351.88249999999999</v>
-      </c>
-      <c r="N43" s="95">
-        <v>412.82490000000001</v>
-      </c>
-      <c r="O43" s="78"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="100" t="s">
-        <v>269</v>
-      </c>
-      <c r="E44" s="100" t="s">
-        <v>313</v>
-      </c>
-      <c r="F44" s="92">
-        <v>16.042200000000001</v>
-      </c>
-      <c r="G44" s="93">
-        <v>5.3661000000000003</v>
-      </c>
-      <c r="H44" s="93">
-        <v>21.887899999999998</v>
-      </c>
-      <c r="I44" s="92">
-        <v>6.7941000000000003</v>
-      </c>
-      <c r="J44" s="93">
-        <v>5.9741</v>
-      </c>
-      <c r="K44" s="93">
-        <v>7.7735000000000003</v>
-      </c>
-      <c r="L44" s="92">
-        <v>371.87799999999999</v>
-      </c>
-      <c r="M44" s="93">
-        <v>351.9898</v>
-      </c>
-      <c r="N44" s="93">
-        <v>412.93819999999999</v>
-      </c>
-      <c r="O44" s="78"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="E45" s="87" t="s">
-        <v>314</v>
-      </c>
-      <c r="F45" s="96">
-        <v>73.429699999999997</v>
-      </c>
-      <c r="G45" s="97">
-        <v>56.055900000000001</v>
-      </c>
-      <c r="H45" s="97">
-        <v>84.448300000000003</v>
-      </c>
-      <c r="I45" s="96">
-        <v>5.3090000000000002</v>
-      </c>
-      <c r="J45" s="101">
-        <v>4.2108999999999996</v>
-      </c>
-      <c r="K45" s="97">
-        <v>6.4196</v>
-      </c>
-      <c r="L45" s="98">
-        <v>68.522999999999996</v>
-      </c>
-      <c r="M45" s="99">
-        <v>11.7296</v>
-      </c>
-      <c r="N45" s="99">
-        <v>145.5017</v>
-      </c>
-      <c r="O45" s="78"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="92">
-        <v>4.6817000000000002</v>
-      </c>
-      <c r="G46" s="102">
-        <v>4.0145999999999997</v>
-      </c>
-      <c r="H46" s="102">
-        <v>5.1927000000000003</v>
-      </c>
-      <c r="I46" s="92">
-        <v>1.544</v>
-      </c>
-      <c r="J46" s="93">
-        <v>1.4715</v>
-      </c>
-      <c r="K46" s="93">
-        <v>1.6457999999999999</v>
-      </c>
-      <c r="L46" s="92">
-        <v>4.8446999999999996</v>
-      </c>
-      <c r="M46" s="93">
+      <c r="H71" s="89">
+        <v>43.772300000000001</v>
+      </c>
+      <c r="I71" s="88">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J71" s="89">
         <v>0</v>
       </c>
-      <c r="N46" s="93">
-        <v>6.8643999999999998</v>
-      </c>
-      <c r="O46" s="78"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="92">
-        <v>1.9555</v>
-      </c>
-      <c r="G47" s="93">
-        <v>1.4835</v>
-      </c>
-      <c r="H47" s="93">
-        <v>2.3628</v>
-      </c>
-      <c r="I47" s="92">
-        <v>0.37219999999999998</v>
-      </c>
-      <c r="J47" s="93">
-        <v>0.29959999999999998</v>
-      </c>
-      <c r="K47" s="93">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="L47" s="92">
-        <v>1.0024</v>
-      </c>
-      <c r="M47" s="93">
-        <v>-3.8420999999999998</v>
-      </c>
-      <c r="N47" s="93">
-        <v>3.0369999999999999</v>
-      </c>
-      <c r="O47" s="78"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="92">
-        <v>-0.69750000000000001</v>
-      </c>
-      <c r="G48" s="93">
-        <v>-1.0893999999999999</v>
-      </c>
-      <c r="H48" s="93">
-        <v>-0.25059999999999999</v>
-      </c>
-      <c r="I48" s="92">
-        <v>0.1686</v>
-      </c>
-      <c r="J48" s="93">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="K48" s="93">
-        <v>0.24629999999999999</v>
-      </c>
-      <c r="L48" s="92">
-        <v>1.4165000000000001</v>
-      </c>
-      <c r="M48" s="93">
-        <v>-0.61770000000000003</v>
-      </c>
-      <c r="N48" s="93">
-        <v>6.2610000000000001</v>
-      </c>
-      <c r="O48" s="78"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="92">
-        <v>50.6218</v>
-      </c>
-      <c r="G49" s="93">
-        <v>44.285899999999998</v>
-      </c>
-      <c r="H49" s="93">
-        <v>54.964799999999997</v>
-      </c>
-      <c r="I49" s="92">
-        <v>22.228000000000002</v>
-      </c>
-      <c r="J49" s="93">
-        <v>21.928599999999999</v>
-      </c>
-      <c r="K49" s="93">
-        <v>22.3005</v>
-      </c>
-      <c r="L49" s="92">
-        <v>76.875500000000002</v>
-      </c>
-      <c r="M49" s="93">
-        <v>72.491799999999998</v>
-      </c>
-      <c r="N49" s="93">
-        <v>81.716800000000006</v>
-      </c>
-      <c r="O49" s="78"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="92">
-        <v>7.3310000000000004</v>
-      </c>
-      <c r="G50" s="93">
-        <v>6.4097</v>
-      </c>
-      <c r="H50" s="93">
-        <v>7.9444999999999997</v>
-      </c>
-      <c r="I50" s="92">
-        <v>3.1511999999999998</v>
-      </c>
-      <c r="J50" s="93">
-        <v>3.1093000000000002</v>
-      </c>
-      <c r="K50" s="93">
-        <v>3.1511999999999998</v>
-      </c>
-      <c r="L50" s="92">
-        <v>10.9099</v>
-      </c>
-      <c r="M50" s="93">
-        <v>10.4008</v>
-      </c>
-      <c r="N50" s="93">
-        <v>10.9094</v>
-      </c>
-      <c r="O50" s="78"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="92">
-        <v>1.8714</v>
-      </c>
-      <c r="G51" s="93">
-        <v>1.6362000000000001</v>
-      </c>
-      <c r="H51" s="93">
-        <v>2.028</v>
-      </c>
-      <c r="I51" s="92">
-        <v>0.8044</v>
-      </c>
-      <c r="J51" s="93">
-        <v>0.79369999999999996</v>
-      </c>
-      <c r="K51" s="93">
-        <v>0.8044</v>
-      </c>
-      <c r="L51" s="92">
-        <v>2.7488000000000001</v>
-      </c>
-      <c r="M51" s="93">
-        <v>2.6206</v>
-      </c>
-      <c r="N51" s="93">
-        <v>2.7486999999999999</v>
-      </c>
-      <c r="O51" s="78"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="92">
-        <v>1.5694999999999999</v>
-      </c>
-      <c r="G52" s="93">
-        <v>1.3723000000000001</v>
-      </c>
-      <c r="H52" s="93">
-        <v>1.7009000000000001</v>
-      </c>
-      <c r="I52" s="92">
-        <v>0.67469999999999997</v>
-      </c>
-      <c r="J52" s="93">
-        <v>0.66569999999999996</v>
-      </c>
-      <c r="K52" s="93">
-        <v>0.67469999999999997</v>
-      </c>
-      <c r="L52" s="92">
-        <v>2.5960999999999999</v>
-      </c>
-      <c r="M52" s="93">
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="N52" s="93">
-        <v>2.5960000000000001</v>
-      </c>
-      <c r="O52" s="78"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="92">
-        <v>1.5486000000000001E-6</v>
-      </c>
-      <c r="G53" s="93">
+      <c r="K71" s="89">
+        <v>9.5710999999999995</v>
+      </c>
+      <c r="L71" s="88">
+        <v>9.9877000000000002E-8</v>
+      </c>
+      <c r="M71" s="89">
         <v>0</v>
       </c>
-      <c r="H53" s="93">
-        <v>10.8581</v>
-      </c>
-      <c r="I53" s="92">
-        <v>7.1487999999999996</v>
-      </c>
-      <c r="J53" s="93">
-        <v>6.6437999999999997</v>
-      </c>
-      <c r="K53" s="93">
-        <v>7.2937000000000003</v>
-      </c>
-      <c r="L53" s="92">
-        <v>1.0045E-7</v>
-      </c>
-      <c r="M53" s="93">
-        <v>0</v>
-      </c>
-      <c r="N53" s="93">
-        <v>36.522199999999998</v>
-      </c>
-      <c r="O53" s="78"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="92">
-        <v>14.609500000000001</v>
-      </c>
-      <c r="G54" s="93">
-        <v>4.3471000000000002</v>
-      </c>
-      <c r="H54" s="93">
-        <v>16.188400000000001</v>
-      </c>
-      <c r="I54" s="92">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="J54" s="93">
-        <v>0</v>
-      </c>
-      <c r="K54" s="93">
-        <v>0.57520000000000004</v>
-      </c>
-      <c r="L54" s="92">
-        <v>28.812799999999999</v>
-      </c>
-      <c r="M54" s="93">
-        <v>0</v>
-      </c>
-      <c r="N54" s="93">
-        <v>38.500599999999999</v>
-      </c>
-      <c r="O54" s="78"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="92">
-        <v>2.0827</v>
-      </c>
-      <c r="G55" s="93">
-        <v>1.8209</v>
-      </c>
-      <c r="H55" s="93">
-        <v>2.2570000000000001</v>
-      </c>
-      <c r="I55" s="92">
-        <v>0.8952</v>
-      </c>
-      <c r="J55" s="93">
-        <v>0.88329999999999997</v>
-      </c>
-      <c r="K55" s="93">
-        <v>0.8952</v>
-      </c>
-      <c r="L55" s="92">
-        <v>2.7488000000000001</v>
-      </c>
-      <c r="M55" s="93">
-        <v>2.6206</v>
-      </c>
-      <c r="N55" s="93">
-        <v>2.7486999999999999</v>
-      </c>
-      <c r="O55" s="78"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="92">
-        <v>4.2861000000000002</v>
-      </c>
-      <c r="G56" s="93">
-        <v>3.7473999999999998</v>
-      </c>
-      <c r="H56" s="93">
-        <v>4.6447000000000003</v>
-      </c>
-      <c r="I56" s="92">
-        <v>1.8423</v>
-      </c>
-      <c r="J56" s="93">
-        <v>1.8179000000000001</v>
-      </c>
-      <c r="K56" s="93">
-        <v>1.8423</v>
-      </c>
-      <c r="L56" s="92">
-        <v>5.9558</v>
-      </c>
-      <c r="M56" s="93">
-        <v>5.6779000000000002</v>
-      </c>
-      <c r="N56" s="93">
-        <v>5.9555999999999996</v>
-      </c>
-      <c r="O56" s="78"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="92">
-        <v>5.7380000000000004</v>
-      </c>
-      <c r="G57" s="93">
-        <v>4.7350000000000003</v>
-      </c>
-      <c r="H57" s="93">
-        <v>6.8377999999999997</v>
-      </c>
-      <c r="I57" s="92">
-        <v>3.4033000000000002</v>
-      </c>
-      <c r="J57" s="93">
-        <v>3.1995</v>
-      </c>
-      <c r="K57" s="93">
-        <v>3.5482999999999998</v>
-      </c>
-      <c r="L57" s="92">
-        <v>13.547499999999999</v>
-      </c>
-      <c r="M57" s="93">
-        <v>9.4728999999999992</v>
-      </c>
-      <c r="N57" s="93">
-        <v>23.236000000000001</v>
-      </c>
-      <c r="O57" s="78"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="92">
-        <v>1.5123</v>
-      </c>
-      <c r="G58" s="93">
-        <v>0.70079999999999998</v>
-      </c>
-      <c r="H58" s="93">
-        <v>2.4533</v>
-      </c>
-      <c r="I58" s="92">
-        <v>1.5869</v>
-      </c>
-      <c r="J58" s="93">
-        <v>1.3831</v>
-      </c>
-      <c r="K58" s="93">
-        <v>1.7423</v>
-      </c>
-      <c r="L58" s="92">
-        <v>7.4389000000000003</v>
-      </c>
-      <c r="M58" s="93">
-        <v>3.3732000000000002</v>
-      </c>
-      <c r="N58" s="93">
-        <v>17.127700000000001</v>
-      </c>
-      <c r="O58" s="78"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="92">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="G59" s="93">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H59" s="93">
-        <v>4.7100000000000003E-2</v>
-      </c>
-      <c r="I59" s="92">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="J59" s="93">
-        <v>1.84E-2</v>
-      </c>
-      <c r="K59" s="93">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="L59" s="92">
-        <v>0.11</v>
-      </c>
-      <c r="M59" s="93">
-        <v>0.1048</v>
-      </c>
-      <c r="N59" s="93">
-        <v>0.1099</v>
-      </c>
-      <c r="O59" s="78"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="92">
-        <v>0.53359999999999996</v>
-      </c>
-      <c r="G60" s="93">
-        <v>0.46660000000000001</v>
-      </c>
-      <c r="H60" s="93">
-        <v>0.57830000000000004</v>
-      </c>
-      <c r="I60" s="92">
-        <v>0.22939999999999999</v>
-      </c>
-      <c r="J60" s="93">
-        <v>0.2263</v>
-      </c>
-      <c r="K60" s="93">
-        <v>0.22939999999999999</v>
-      </c>
-      <c r="L60" s="92">
-        <v>1.35</v>
-      </c>
-      <c r="M60" s="93">
-        <v>1.2869999999999999</v>
-      </c>
-      <c r="N60" s="93">
-        <v>1.3499000000000001</v>
-      </c>
-      <c r="O60" s="78"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="92">
-        <v>2.8372999999999999</v>
-      </c>
-      <c r="G61" s="93">
-        <v>2.4807000000000001</v>
-      </c>
-      <c r="H61" s="93">
-        <v>3.0747</v>
-      </c>
-      <c r="I61" s="92">
-        <v>1.2196</v>
-      </c>
-      <c r="J61" s="93">
-        <v>1.2034</v>
-      </c>
-      <c r="K61" s="93">
-        <v>1.2196</v>
-      </c>
-      <c r="L61" s="92">
-        <v>1.8326</v>
-      </c>
-      <c r="M61" s="93">
-        <v>1.7471000000000001</v>
-      </c>
-      <c r="N61" s="93">
-        <v>1.8325</v>
-      </c>
-      <c r="O61" s="78"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="92">
-        <v>2.7768999999999999</v>
-      </c>
-      <c r="G62" s="93">
-        <v>2.4279000000000002</v>
-      </c>
-      <c r="H62" s="93">
-        <v>3.0093000000000001</v>
-      </c>
-      <c r="I62" s="92">
-        <v>1.1936</v>
-      </c>
-      <c r="J62" s="93">
-        <v>1.1778</v>
-      </c>
-      <c r="K62" s="93">
-        <v>1.1936</v>
-      </c>
-      <c r="L62" s="92">
-        <v>3.8178000000000001</v>
-      </c>
-      <c r="M62" s="93">
-        <v>3.6396999999999999</v>
-      </c>
-      <c r="N62" s="93">
-        <v>3.8176999999999999</v>
-      </c>
-      <c r="O62" s="78"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="92">
-        <v>1.4488000000000001</v>
-      </c>
-      <c r="G63" s="93">
-        <v>1.2666999999999999</v>
-      </c>
-      <c r="H63" s="93">
-        <v>1.5701000000000001</v>
-      </c>
-      <c r="I63" s="92">
-        <v>0.62280000000000002</v>
-      </c>
-      <c r="J63" s="93">
-        <v>0.61450000000000005</v>
-      </c>
-      <c r="K63" s="93">
-        <v>0.62280000000000002</v>
-      </c>
-      <c r="L63" s="92">
-        <v>1.9853000000000001</v>
-      </c>
-      <c r="M63" s="93">
-        <v>1.8926000000000001</v>
-      </c>
-      <c r="N63" s="93">
-        <v>1.9852000000000001</v>
-      </c>
-      <c r="O63" s="78"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="92">
-        <v>0.84509999999999996</v>
-      </c>
-      <c r="G64" s="93">
-        <v>0.7389</v>
-      </c>
-      <c r="H64" s="93">
-        <v>0.91590000000000005</v>
-      </c>
-      <c r="I64" s="92">
-        <v>0.36330000000000001</v>
-      </c>
-      <c r="J64" s="93">
-        <v>0.35849999999999999</v>
-      </c>
-      <c r="K64" s="93">
-        <v>0.36330000000000001</v>
-      </c>
-      <c r="L64" s="92">
-        <v>2.9016000000000002</v>
-      </c>
-      <c r="M64" s="93">
-        <v>2.7662</v>
-      </c>
-      <c r="N64" s="93">
-        <v>2.9014000000000002</v>
-      </c>
-      <c r="O64" s="78"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="81" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="92">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="G65" s="93">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="H65" s="93">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="I65" s="92">
-        <v>1.14E-2</v>
-      </c>
-      <c r="J65" s="93">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="K65" s="93">
-        <v>1.14E-2</v>
-      </c>
-      <c r="L65" s="92">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="M65" s="93">
-        <v>6.4100000000000004E-2</v>
-      </c>
-      <c r="N65" s="93">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="O65" s="78"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="92">
-        <v>0.72440000000000004</v>
-      </c>
-      <c r="G66" s="93">
-        <v>0.63339999999999996</v>
-      </c>
-      <c r="H66" s="93">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="I66" s="92">
-        <v>0.31140000000000001</v>
-      </c>
-      <c r="J66" s="93">
-        <v>0.30719999999999997</v>
-      </c>
-      <c r="K66" s="93">
-        <v>0.31140000000000001</v>
-      </c>
-      <c r="L66" s="92">
-        <v>1.069</v>
-      </c>
-      <c r="M66" s="93">
-        <v>1.0190999999999999</v>
-      </c>
-      <c r="N66" s="93">
-        <v>1.069</v>
-      </c>
-      <c r="O66" s="78"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="92">
-        <v>1.8109999999999999</v>
-      </c>
-      <c r="G67" s="93">
-        <v>1.5833999999999999</v>
-      </c>
-      <c r="H67" s="93">
-        <v>1.9625999999999999</v>
-      </c>
-      <c r="I67" s="92">
-        <v>0.77849999999999997</v>
-      </c>
-      <c r="J67" s="93">
-        <v>0.7681</v>
-      </c>
-      <c r="K67" s="93">
-        <v>0.77849999999999997</v>
-      </c>
-      <c r="L67" s="92">
-        <v>2.7488000000000001</v>
-      </c>
-      <c r="M67" s="93">
-        <v>2.6206</v>
-      </c>
-      <c r="N67" s="93">
-        <v>2.7486999999999999</v>
-      </c>
-      <c r="O67" s="78"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87" t="s">
-        <v>315</v>
-      </c>
-      <c r="F68" s="96">
-        <v>2.8976000000000002</v>
-      </c>
-      <c r="G68" s="97">
-        <v>2.5335000000000001</v>
-      </c>
-      <c r="H68" s="97">
-        <v>3.1400999999999999</v>
-      </c>
-      <c r="I68" s="96">
-        <v>1.2455000000000001</v>
-      </c>
-      <c r="J68" s="97">
-        <v>1.2290000000000001</v>
-      </c>
-      <c r="K68" s="97">
-        <v>1.2455000000000001</v>
-      </c>
-      <c r="L68" s="96">
-        <v>4.2759999999999998</v>
-      </c>
-      <c r="M68" s="97">
-        <v>4.0765000000000002</v>
-      </c>
-      <c r="N68" s="97">
-        <v>4.2758000000000003</v>
-      </c>
-      <c r="O68" s="78"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="B69" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="E69" s="81"/>
-      <c r="F69" s="92">
-        <v>12.073399999999999</v>
-      </c>
-      <c r="G69" s="93">
-        <v>10.556100000000001</v>
-      </c>
-      <c r="H69" s="93">
-        <v>13.0838</v>
-      </c>
-      <c r="I69" s="92">
-        <v>5.1897000000000002</v>
-      </c>
-      <c r="J69" s="93">
-        <v>5.1208</v>
-      </c>
-      <c r="K69" s="93">
-        <v>5.1897000000000002</v>
-      </c>
-      <c r="L69" s="92">
-        <v>30.5428</v>
-      </c>
-      <c r="M69" s="93">
-        <v>29.1175</v>
-      </c>
-      <c r="N69" s="93">
-        <v>30.541499999999999</v>
-      </c>
-      <c r="O69" s="78"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="81" t="s">
+      <c r="N71" s="89">
+        <v>106.8288</v>
+      </c>
+      <c r="O71" s="74"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="77" t="s">
         <v>320</v>
       </c>
-      <c r="B70" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="D70" s="81" t="s">
-        <v>272</v>
-      </c>
-      <c r="E70" s="81"/>
-      <c r="F70" s="92">
-        <v>778.43280000000004</v>
-      </c>
-      <c r="G70" s="93">
-        <v>572.39170000000001</v>
-      </c>
-      <c r="H70" s="93">
-        <v>1065.4000000000001</v>
-      </c>
-      <c r="I70" s="92">
-        <v>732.68920000000003</v>
-      </c>
-      <c r="J70" s="93">
-        <v>728.56479999999999</v>
-      </c>
-      <c r="K70" s="93">
-        <v>746.42179999999996</v>
-      </c>
-      <c r="L70" s="92">
-        <v>4851.5</v>
-      </c>
-      <c r="M70" s="93">
-        <v>4808.5</v>
-      </c>
-      <c r="N70" s="93">
-        <v>5135.2</v>
-      </c>
-      <c r="O70" s="78"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="B71" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="92">
-        <v>1.5852000000000001E-6</v>
-      </c>
-      <c r="G71" s="93">
-        <v>0</v>
-      </c>
-      <c r="H71" s="93">
-        <v>43.772300000000001</v>
-      </c>
-      <c r="I71" s="92">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="J71" s="93">
-        <v>0</v>
-      </c>
-      <c r="K71" s="93">
-        <v>9.5710999999999995</v>
-      </c>
-      <c r="L71" s="92">
-        <v>9.9877000000000002E-8</v>
-      </c>
-      <c r="M71" s="93">
-        <v>0</v>
-      </c>
-      <c r="N71" s="93">
-        <v>106.8288</v>
-      </c>
-      <c r="O71" s="78"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="B72" s="81" t="s">
+      <c r="B72" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="81" t="s">
+      <c r="C72" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81" t="s">
+      <c r="D72" s="77"/>
+      <c r="E72" s="77" t="s">
         <v>316</v>
       </c>
-      <c r="F72" s="92">
+      <c r="F72" s="88">
         <v>308.28739999999999</v>
       </c>
-      <c r="G72" s="93">
+      <c r="G72" s="89">
         <v>249.0163</v>
       </c>
-      <c r="H72" s="93">
+      <c r="H72" s="89">
         <v>398.6019</v>
       </c>
-      <c r="I72" s="92">
+      <c r="I72" s="88">
         <v>204.2585</v>
       </c>
-      <c r="J72" s="84">
+      <c r="J72" s="80">
         <v>202.66470000000001</v>
       </c>
-      <c r="K72" s="84">
+      <c r="K72" s="80">
         <v>208.1858</v>
       </c>
-      <c r="L72" s="92">
+      <c r="L72" s="88">
         <v>1490.7</v>
       </c>
-      <c r="M72" s="103">
+      <c r="M72" s="98">
         <v>1472.6</v>
       </c>
-      <c r="N72" s="103">
+      <c r="N72" s="98">
         <v>1584.2</v>
       </c>
-      <c r="O72" s="78"/>
+      <c r="O72" s="74"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="87" t="s">
+      <c r="A73" s="83" t="s">
         <v>321</v>
       </c>
-      <c r="B73" s="87" t="s">
+      <c r="B73" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="87" t="s">
+      <c r="C73" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="D73" s="87" t="s">
+      <c r="D73" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="E73" s="87"/>
-      <c r="F73" s="96">
+      <c r="E73" s="83"/>
+      <c r="F73" s="92">
         <v>203.9726</v>
       </c>
-      <c r="G73" s="91">
+      <c r="G73" s="87">
         <v>170.85929999999999</v>
       </c>
-      <c r="H73" s="91">
+      <c r="H73" s="87">
         <v>253.73339999999999</v>
       </c>
-      <c r="I73" s="98">
+      <c r="I73" s="94">
         <v>129.76949999999999</v>
       </c>
-      <c r="J73" s="101" t="s">
+      <c r="J73" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="K73" s="99">
+      <c r="K73" s="95">
         <v>132.0301</v>
       </c>
-      <c r="L73" s="98">
+      <c r="L73" s="94">
         <v>742.95579999999995</v>
       </c>
-      <c r="M73" s="97">
+      <c r="M73" s="93">
         <v>743.00139999999999</v>
       </c>
-      <c r="N73" s="104">
+      <c r="N73" s="99">
         <v>792.30849999999998</v>
       </c>
-      <c r="O73" s="78"/>
+      <c r="O73" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5683,7 +5701,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="100" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -5729,7 +5747,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -5773,7 +5791,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -5812,12 +5830,12 @@
       <c r="M5" s="17">
         <v>57.944400000000002</v>
       </c>
-      <c r="O5" s="76" t="s">
+      <c r="O5" s="103" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
@@ -5856,10 +5874,10 @@
       <c r="M6" s="17">
         <v>56.511099999999999</v>
       </c>
-      <c r="O6" s="76"/>
+      <c r="O6" s="103"/>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
@@ -5898,10 +5916,10 @@
       <c r="M7" s="17">
         <v>132.71209999999999</v>
       </c>
-      <c r="O7" s="76"/>
+      <c r="O7" s="103"/>
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
@@ -5940,10 +5958,10 @@
       <c r="M8" s="17">
         <v>128.25729999999999</v>
       </c>
-      <c r="O8" s="76"/>
+      <c r="O8" s="103"/>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
@@ -5982,10 +6000,10 @@
       <c r="M9" s="17">
         <v>165.43190000000001</v>
       </c>
-      <c r="O9" s="76"/>
+      <c r="O9" s="103"/>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="74"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="18" t="s">
         <v>30</v>
       </c>
@@ -6024,10 +6042,10 @@
       <c r="M10" s="17">
         <v>43.282600000000002</v>
       </c>
-      <c r="O10" s="76"/>
+      <c r="O10" s="103"/>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="100" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -6070,7 +6088,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
@@ -6111,7 +6129,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
@@ -6152,7 +6170,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
@@ -6193,7 +6211,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
@@ -6234,7 +6252,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
@@ -6275,7 +6293,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
@@ -6316,7 +6334,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
@@ -6360,7 +6378,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="74"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="18" t="s">
         <v>50</v>
       </c>
@@ -6401,7 +6419,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="100" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -6444,7 +6462,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
@@ -6485,7 +6503,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
@@ -6526,7 +6544,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="5" t="s">
         <v>59</v>
       </c>
@@ -6567,7 +6585,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="5" t="s">
         <v>61</v>
       </c>
@@ -6608,7 +6626,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
@@ -6649,7 +6667,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="5" t="s">
         <v>65</v>
       </c>
@@ -6690,7 +6708,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="5" t="s">
         <v>67</v>
       </c>
@@ -6731,7 +6749,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="74"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="18" t="s">
         <v>69</v>
       </c>
@@ -6772,7 +6790,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="102" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -6815,7 +6833,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="24" t="s">
         <v>74</v>
       </c>
@@ -6856,7 +6874,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="5" t="s">
         <v>76</v>
       </c>
@@ -6895,17 +6913,17 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="E32" s="77"/>
+      <c r="E32" s="73"/>
       <c r="F32" s="19">
         <v>3.6589999999999998</v>
       </c>
@@ -6937,7 +6955,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="100" t="s">
         <v>81</v>
       </c>
       <c r="B33" s="24" t="s">
@@ -6976,7 +6994,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="5" t="s">
         <v>84</v>
       </c>
@@ -7015,7 +7033,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="5" t="s">
         <v>86</v>
       </c>
@@ -7056,7 +7074,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="5" t="s">
         <v>88</v>
       </c>
@@ -7097,7 +7115,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="18" t="s">
         <v>90</v>
       </c>
@@ -7138,7 +7156,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="100" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -7181,7 +7199,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="30" t="s">
         <v>95</v>
       </c>
@@ -7218,7 +7236,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="5" t="s">
         <v>98</v>
       </c>
@@ -7259,7 +7277,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="5" t="s">
         <v>100</v>
       </c>
@@ -7300,7 +7318,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="74"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="18" t="s">
         <v>102</v>
       </c>
@@ -7341,7 +7359,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="102" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="32" t="s">
@@ -7380,7 +7398,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="5" t="s">
         <v>107</v>
       </c>
@@ -7417,7 +7435,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="5" t="s">
         <v>109</v>
       </c>
@@ -7454,7 +7472,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="5" t="s">
         <v>111</v>
       </c>
@@ -7491,7 +7509,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="5" t="s">
         <v>113</v>
       </c>
@@ -7528,7 +7546,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="5" t="s">
         <v>115</v>
       </c>
@@ -7565,7 +7583,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="73"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="5" t="s">
         <v>117</v>
       </c>
@@ -7602,7 +7620,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="73"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="5" t="s">
         <v>119</v>
       </c>
@@ -7639,7 +7657,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="73"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="5" t="s">
         <v>121</v>
       </c>
@@ -7676,7 +7694,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="73"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="5" t="s">
         <v>123</v>
       </c>
@@ -7713,7 +7731,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="73"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="5" t="s">
         <v>125</v>
       </c>
@@ -7750,7 +7768,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="73"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="5" t="s">
         <v>127</v>
       </c>
@@ -7787,7 +7805,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="73"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="5" t="s">
         <v>129</v>
       </c>
@@ -7824,7 +7842,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A56" s="73"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="5" t="s">
         <v>131</v>
       </c>
@@ -7861,7 +7879,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="73"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="5" t="s">
         <v>133</v>
       </c>
@@ -7898,7 +7916,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A58" s="73"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="5" t="s">
         <v>135</v>
       </c>
@@ -7935,7 +7953,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="73"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="5" t="s">
         <v>137</v>
       </c>
@@ -7972,7 +7990,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="73"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="5" t="s">
         <v>139</v>
       </c>
@@ -8009,7 +8027,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="73"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="5" t="s">
         <v>141</v>
       </c>
@@ -8046,7 +8064,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="73"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="5" t="s">
         <v>143</v>
       </c>
@@ -8083,7 +8101,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="73"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="5" t="s">
         <v>145</v>
       </c>
@@ -8120,7 +8138,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="73"/>
+      <c r="A64" s="100"/>
       <c r="B64" s="5" t="s">
         <v>147</v>
       </c>
@@ -8157,7 +8175,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A65" s="74"/>
+      <c r="A65" s="101"/>
       <c r="B65" s="18" t="s">
         <v>149</v>
       </c>
@@ -8756,7 +8774,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="100" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -8799,7 +8817,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -8835,12 +8853,12 @@
       <c r="L5" s="5">
         <v>-20.242000000000001</v>
       </c>
-      <c r="N5" s="76" t="s">
+      <c r="N5" s="103" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -8876,10 +8894,10 @@
       <c r="L6" s="5">
         <v>-20.242000000000001</v>
       </c>
-      <c r="N6" s="76"/>
+      <c r="N6" s="103"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
@@ -8915,10 +8933,10 @@
       <c r="L7" s="5">
         <v>79.114400000000003</v>
       </c>
-      <c r="N7" s="76"/>
+      <c r="N7" s="103"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
@@ -8954,10 +8972,10 @@
       <c r="L8" s="5">
         <v>68.344800000000006</v>
       </c>
-      <c r="N8" s="76"/>
+      <c r="N8" s="103"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
@@ -8993,10 +9011,10 @@
       <c r="L9" s="5">
         <v>66.798299999999998</v>
       </c>
-      <c r="N9" s="76"/>
+      <c r="N9" s="103"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
@@ -9032,10 +9050,10 @@
       <c r="L10" s="5">
         <v>66.330200000000005</v>
       </c>
-      <c r="N10" s="76"/>
+      <c r="N10" s="103"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="74"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="18" t="s">
         <v>30</v>
       </c>
@@ -9071,10 +9089,10 @@
       <c r="L11" s="5">
         <v>1.9348000000000001</v>
       </c>
-      <c r="N11" s="76"/>
+      <c r="N11" s="103"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="100" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -9114,7 +9132,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
@@ -9152,7 +9170,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
@@ -9190,7 +9208,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
@@ -9228,7 +9246,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
@@ -9266,7 +9284,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
@@ -9304,7 +9322,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
@@ -9345,7 +9363,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -9383,7 +9401,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="74"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="18" t="s">
         <v>50</v>
       </c>
@@ -9421,7 +9439,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="100" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -9467,7 +9485,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="5" t="s">
         <v>55</v>
       </c>
@@ -9506,7 +9524,7 @@
       <c r="N22" s="46"/>
     </row>
     <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="5" t="s">
         <v>57</v>
       </c>
@@ -9550,7 +9568,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
@@ -9589,7 +9607,7 @@
       <c r="N24" s="46"/>
     </row>
     <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="5" t="s">
         <v>61</v>
       </c>
@@ -9633,7 +9651,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="5" t="s">
         <v>63</v>
       </c>
@@ -9671,7 +9689,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="5" t="s">
         <v>65</v>
       </c>
@@ -9709,7 +9727,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="5" t="s">
         <v>67</v>
       </c>
@@ -9747,7 +9765,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="74"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="18" t="s">
         <v>69</v>
       </c>
@@ -9785,7 +9803,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="102" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -9825,7 +9843,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="24" t="s">
         <v>74</v>
       </c>
@@ -9863,7 +9881,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="5" t="s">
         <v>76</v>
       </c>
@@ -9901,7 +9919,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="74"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="18" t="s">
         <v>78</v>
       </c>
@@ -9939,7 +9957,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="100" t="s">
         <v>81</v>
       </c>
       <c r="B34" s="24" t="s">
@@ -9977,7 +9995,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="5" t="s">
         <v>84</v>
       </c>
@@ -10013,7 +10031,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="5" t="s">
         <v>86</v>
       </c>
@@ -10051,7 +10069,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="73"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="5" t="s">
         <v>88</v>
       </c>
@@ -10089,7 +10107,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="74"/>
+      <c r="A38" s="101"/>
       <c r="B38" s="18" t="s">
         <v>90</v>
       </c>
@@ -10127,7 +10145,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="100" t="s">
         <v>92</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -10167,7 +10185,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="24" t="s">
         <v>95</v>
       </c>
@@ -10203,7 +10221,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="5" t="s">
         <v>98</v>
       </c>
@@ -10241,7 +10259,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="5" t="s">
         <v>100</v>
       </c>
@@ -10279,7 +10297,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="74"/>
+      <c r="A43" s="101"/>
       <c r="B43" s="18" t="s">
         <v>102</v>
       </c>
@@ -10317,7 +10335,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="102" t="s">
         <v>104</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -10355,7 +10373,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="5" t="s">
         <v>107</v>
       </c>
@@ -10391,7 +10409,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="5" t="s">
         <v>109</v>
       </c>
@@ -10427,7 +10445,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="5" t="s">
         <v>111</v>
       </c>
@@ -10463,7 +10481,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="5" t="s">
         <v>113</v>
       </c>
@@ -10499,7 +10517,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="73"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="5" t="s">
         <v>115</v>
       </c>
@@ -10535,7 +10553,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="73"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="5" t="s">
         <v>117</v>
       </c>
@@ -10571,7 +10589,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="73"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="5" t="s">
         <v>119</v>
       </c>
@@ -10607,7 +10625,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="73"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="5" t="s">
         <v>121</v>
       </c>
@@ -10643,7 +10661,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="73"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="5" t="s">
         <v>123</v>
       </c>
@@ -10679,7 +10697,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="73"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="5" t="s">
         <v>125</v>
       </c>
@@ -10715,7 +10733,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="73"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="5" t="s">
         <v>127</v>
       </c>
@@ -10751,7 +10769,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="73"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="5" t="s">
         <v>129</v>
       </c>
@@ -10787,7 +10805,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A57" s="73"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="5" t="s">
         <v>131</v>
       </c>
@@ -10823,7 +10841,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="73"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="5" t="s">
         <v>133</v>
       </c>
@@ -10859,7 +10877,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A59" s="73"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="5" t="s">
         <v>135</v>
       </c>
@@ -10895,7 +10913,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="73"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="5" t="s">
         <v>137</v>
       </c>
@@ -10931,7 +10949,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="73"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="5" t="s">
         <v>139</v>
       </c>
@@ -10967,7 +10985,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="73"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="5" t="s">
         <v>141</v>
       </c>
@@ -11003,7 +11021,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="73"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="5" t="s">
         <v>143</v>
       </c>
@@ -11039,7 +11057,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="73"/>
+      <c r="A64" s="100"/>
       <c r="B64" s="5" t="s">
         <v>145</v>
       </c>
@@ -11075,7 +11093,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="73"/>
+      <c r="A65" s="100"/>
       <c r="B65" s="5" t="s">
         <v>147</v>
       </c>
@@ -11111,7 +11129,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="74"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="18" t="s">
         <v>149</v>
       </c>
@@ -11652,7 +11670,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="100" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -11710,7 +11728,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -11766,7 +11784,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -11802,7 +11820,7 @@
       <c r="L5" s="17">
         <v>-138.4058</v>
       </c>
-      <c r="N5" s="76" t="s">
+      <c r="N5" s="103" t="s">
         <v>183</v>
       </c>
       <c r="P5" s="5" t="s">
@@ -11822,7 +11840,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
@@ -11858,7 +11876,7 @@
       <c r="L6" s="17">
         <v>-147.874</v>
       </c>
-      <c r="N6" s="76"/>
+      <c r="N6" s="103"/>
       <c r="P6" s="5" t="s">
         <v>185</v>
       </c>
@@ -11876,7 +11894,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
@@ -11912,7 +11930,7 @@
       <c r="L7" s="17">
         <v>-209.57640000000001</v>
       </c>
-      <c r="N7" s="76"/>
+      <c r="N7" s="103"/>
       <c r="P7" s="5" t="s">
         <v>186</v>
       </c>
@@ -11930,7 +11948,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
@@ -11966,7 +11984,7 @@
       <c r="L8" s="17">
         <v>-214.33359999999999</v>
       </c>
-      <c r="N8" s="76"/>
+      <c r="N8" s="103"/>
       <c r="P8" s="5" t="s">
         <v>187</v>
       </c>
@@ -11984,7 +12002,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
@@ -12020,7 +12038,7 @@
       <c r="L9" s="17">
         <v>122.809</v>
       </c>
-      <c r="N9" s="76"/>
+      <c r="N9" s="103"/>
       <c r="P9" s="5" t="s">
         <v>189</v>
       </c>
@@ -12038,7 +12056,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="74"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="18" t="s">
         <v>30</v>
       </c>
@@ -12092,7 +12110,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="100" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -12148,7 +12166,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
@@ -12202,7 +12220,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
@@ -12255,7 +12273,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
@@ -12308,7 +12326,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
@@ -12361,7 +12379,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
@@ -12414,7 +12432,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
@@ -12467,7 +12485,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
@@ -12523,7 +12541,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="74"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="18" t="s">
         <v>50</v>
       </c>
@@ -12572,7 +12590,7 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="100" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -12623,7 +12641,7 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
@@ -12672,7 +12690,7 @@
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
@@ -12716,7 +12734,7 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="5" t="s">
         <v>59</v>
       </c>
@@ -12762,7 +12780,7 @@
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="5" t="s">
         <v>61</v>
       </c>
@@ -12805,7 +12823,7 @@
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
@@ -12848,7 +12866,7 @@
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="5" t="s">
         <v>65</v>
       </c>
@@ -12891,7 +12909,7 @@
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="5" t="s">
         <v>67</v>
       </c>
@@ -12934,7 +12952,7 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="74"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="18" t="s">
         <v>69</v>
       </c>
@@ -12977,7 +12995,7 @@
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="102" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -13022,7 +13040,7 @@
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="30" t="s">
         <v>74</v>
       </c>
@@ -13063,7 +13081,7 @@
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="5" t="s">
         <v>76</v>
       </c>
@@ -13106,7 +13124,7 @@
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="18" t="s">
         <v>78</v>
       </c>
@@ -13178,7 +13196,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="100" t="s">
         <v>81</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -13216,7 +13234,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="5" t="s">
         <v>86</v>
       </c>
@@ -13254,7 +13272,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="5" t="s">
         <v>88</v>
       </c>
@@ -13292,7 +13310,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="18" t="s">
         <v>90</v>
       </c>
@@ -13330,7 +13348,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="100" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -13370,7 +13388,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="5" t="s">
         <v>95</v>
       </c>
@@ -13406,7 +13424,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="5" t="s">
         <v>98</v>
       </c>
@@ -13444,7 +13462,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="5" t="s">
         <v>100</v>
       </c>
@@ -13482,7 +13500,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="74"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="18" t="s">
         <v>102</v>
       </c>
@@ -13520,7 +13538,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="100" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -13558,7 +13576,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="5" t="s">
         <v>107</v>
       </c>
@@ -13594,7 +13612,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="5" t="s">
         <v>109</v>
       </c>
@@ -13630,7 +13648,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="5" t="s">
         <v>111</v>
       </c>
@@ -13666,7 +13684,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="5" t="s">
         <v>113</v>
       </c>
@@ -13702,7 +13720,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="5" t="s">
         <v>115</v>
       </c>
@@ -13738,7 +13756,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="73"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="5" t="s">
         <v>117</v>
       </c>
@@ -13774,7 +13792,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="73"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="5" t="s">
         <v>119</v>
       </c>
@@ -13810,7 +13828,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="73"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="5" t="s">
         <v>121</v>
       </c>
@@ -13846,7 +13864,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="73"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="5" t="s">
         <v>123</v>
       </c>
@@ -13882,7 +13900,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="73"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="5" t="s">
         <v>125</v>
       </c>
@@ -13918,7 +13936,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="73"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="5" t="s">
         <v>127</v>
       </c>
@@ -13954,7 +13972,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="73"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="5" t="s">
         <v>129</v>
       </c>
@@ -13990,7 +14008,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A56" s="73"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="5" t="s">
         <v>131</v>
       </c>
@@ -14026,7 +14044,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="73"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="5" t="s">
         <v>133</v>
       </c>
@@ -14062,7 +14080,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A58" s="73"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="5" t="s">
         <v>135</v>
       </c>
@@ -14098,7 +14116,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="73"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="5" t="s">
         <v>137</v>
       </c>
@@ -14134,7 +14152,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="73"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="5" t="s">
         <v>139</v>
       </c>
@@ -14170,7 +14188,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="73"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="5" t="s">
         <v>141</v>
       </c>
@@ -14206,7 +14224,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="73"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="5" t="s">
         <v>143</v>
       </c>
@@ -14242,7 +14260,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="73"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="5" t="s">
         <v>145</v>
       </c>
@@ -14278,7 +14296,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="73"/>
+      <c r="A64" s="100"/>
       <c r="B64" s="5" t="s">
         <v>147</v>
       </c>
@@ -14314,7 +14332,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="74"/>
+      <c r="A65" s="101"/>
       <c r="B65" s="18" t="s">
         <v>149</v>
       </c>
@@ -14854,7 +14872,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="100" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -14914,7 +14932,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -14971,7 +14989,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -15028,7 +15046,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
@@ -15058,7 +15076,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
@@ -15128,7 +15146,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
@@ -15197,7 +15215,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
@@ -15265,7 +15283,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="74"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="18" t="s">
         <v>30</v>
       </c>
@@ -15333,7 +15351,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="100" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -15365,7 +15383,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
@@ -15429,7 +15447,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
@@ -15490,7 +15508,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
@@ -15550,7 +15568,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
@@ -15610,7 +15628,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
@@ -15640,7 +15658,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
@@ -15689,7 +15707,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
@@ -15740,7 +15758,7 @@
       <c r="U18" s="68"/>
     </row>
     <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="74"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="18" t="s">
         <v>50</v>
       </c>
@@ -15790,7 +15808,7 @@
       <c r="U19" s="68"/>
     </row>
     <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="100" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -15842,7 +15860,7 @@
       <c r="U20" s="68"/>
     </row>
     <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
@@ -15872,7 +15890,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
@@ -15924,7 +15942,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="5" t="s">
         <v>59</v>
       </c>
@@ -15977,7 +15995,7 @@
       <c r="U23" s="68"/>
     </row>
     <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="5" t="s">
         <v>61</v>
       </c>
@@ -16029,7 +16047,7 @@
       <c r="U24" s="68"/>
     </row>
     <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
@@ -16081,7 +16099,7 @@
       <c r="U25" s="68"/>
     </row>
     <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="5" t="s">
         <v>65</v>
       </c>
@@ -16111,7 +16129,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="5" t="s">
         <v>67</v>
       </c>
@@ -16163,7 +16181,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="74"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="18" t="s">
         <v>69</v>
       </c>
@@ -16212,7 +16230,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="102" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -16262,7 +16280,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="24" t="s">
         <v>74</v>
       </c>
@@ -16309,7 +16327,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="5" t="s">
         <v>76</v>
       </c>
@@ -16339,7 +16357,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="18" t="s">
         <v>78</v>
       </c>
@@ -16391,7 +16409,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="102" t="s">
         <v>81</v>
       </c>
       <c r="B33" s="24" t="s">
@@ -16444,7 +16462,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="5" t="s">
         <v>84</v>
       </c>
@@ -16492,7 +16510,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="5" t="s">
         <v>86</v>
       </c>
@@ -16540,7 +16558,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="5" t="s">
         <v>88</v>
       </c>
@@ -16570,7 +16588,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="18" t="s">
         <v>90</v>
       </c>
@@ -16600,7 +16618,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="100" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -16632,7 +16650,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="24" t="s">
         <v>95</v>
       </c>
@@ -16661,7 +16679,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="5" t="s">
         <v>98</v>
       </c>
@@ -16691,7 +16709,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="5" t="s">
         <v>100</v>
       </c>
@@ -16721,7 +16739,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="74"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="18" t="s">
         <v>102</v>
       </c>
@@ -16751,7 +16769,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="100" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -16783,7 +16801,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="5" t="s">
         <v>107</v>
       </c>
@@ -16813,7 +16831,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="5" t="s">
         <v>109</v>
       </c>
@@ -16843,7 +16861,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="5" t="s">
         <v>111</v>
       </c>
@@ -16873,7 +16891,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="5" t="s">
         <v>113</v>
       </c>
@@ -16903,7 +16921,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="5" t="s">
         <v>115</v>
       </c>
@@ -16933,7 +16951,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="73"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="5" t="s">
         <v>117</v>
       </c>
@@ -16963,7 +16981,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="73"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="5" t="s">
         <v>119</v>
       </c>
@@ -16993,7 +17011,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="73"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="5" t="s">
         <v>121</v>
       </c>
@@ -17023,7 +17041,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="73"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="5" t="s">
         <v>123</v>
       </c>
@@ -17053,7 +17071,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="73"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="5" t="s">
         <v>125</v>
       </c>
@@ -17083,7 +17101,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="73"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="5" t="s">
         <v>127</v>
       </c>
@@ -17113,7 +17131,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="73"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="5" t="s">
         <v>129</v>
       </c>
@@ -17143,7 +17161,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A56" s="73"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="5" t="s">
         <v>131</v>
       </c>
@@ -17173,7 +17191,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="73"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="5" t="s">
         <v>133</v>
       </c>
@@ -17203,7 +17221,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A58" s="73"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="5" t="s">
         <v>135</v>
       </c>
@@ -17233,7 +17251,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="73"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="5" t="s">
         <v>137</v>
       </c>
@@ -17263,7 +17281,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="73"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="5" t="s">
         <v>139</v>
       </c>
@@ -17293,7 +17311,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A61" s="73"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="5" t="s">
         <v>141</v>
       </c>
@@ -17323,7 +17341,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="73"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="5" t="s">
         <v>143</v>
       </c>
@@ -17353,7 +17371,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="73"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="5" t="s">
         <v>145</v>
       </c>
@@ -17383,7 +17401,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="73"/>
+      <c r="A64" s="100"/>
       <c r="B64" s="5" t="s">
         <v>147</v>
       </c>
@@ -17413,7 +17431,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A65" s="74"/>
+      <c r="A65" s="101"/>
       <c r="B65" s="18" t="s">
         <v>149</v>
       </c>
